--- a/Excel/ThirdStage.xlsx
+++ b/Excel/ThirdStage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE79D057-3136-4EA8-B18D-BEA607BDD00C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BC1DBA-03D1-40C0-AD27-57EB96CBB9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8628" yWindow="0" windowWidth="10596" windowHeight="12240" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="20280" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -107,13 +107,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -124,6 +282,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <dimension ref="A1:BI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:BF16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -554,160 +748,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1">
-        <v>0</v>
-      </c>
-      <c r="O1" s="1">
-        <v>0</v>
-      </c>
-      <c r="P1" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>0</v>
-      </c>
-      <c r="R1" s="1">
-        <v>0</v>
-      </c>
-      <c r="S1" s="1">
-        <v>0</v>
-      </c>
-      <c r="T1" s="1">
-        <v>0</v>
-      </c>
-      <c r="U1" s="1">
-        <v>0</v>
-      </c>
-      <c r="V1" s="1">
-        <v>0</v>
-      </c>
-      <c r="W1" s="1">
-        <v>0</v>
-      </c>
-      <c r="X1" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AZ1" s="1">
+      <c r="A1" s="5">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1" s="6">
+        <v>0</v>
+      </c>
+      <c r="H1" s="6">
+        <v>0</v>
+      </c>
+      <c r="I1" s="6">
+        <v>0</v>
+      </c>
+      <c r="J1" s="6">
+        <v>0</v>
+      </c>
+      <c r="K1" s="6">
+        <v>0</v>
+      </c>
+      <c r="L1" s="6">
+        <v>0</v>
+      </c>
+      <c r="M1" s="6">
+        <v>0</v>
+      </c>
+      <c r="N1" s="6">
+        <v>0</v>
+      </c>
+      <c r="O1" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>0</v>
+      </c>
+      <c r="R1" s="6">
+        <v>0</v>
+      </c>
+      <c r="S1" s="6">
+        <v>0</v>
+      </c>
+      <c r="T1" s="6">
+        <v>0</v>
+      </c>
+      <c r="U1" s="6">
+        <v>0</v>
+      </c>
+      <c r="V1" s="6">
+        <v>0</v>
+      </c>
+      <c r="W1" s="6">
+        <v>0</v>
+      </c>
+      <c r="X1" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY1" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="7">
         <v>0</v>
       </c>
       <c r="BA1" s="1">
@@ -739,163 +933,163 @@
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3">
-        <v>0</v>
-      </c>
-      <c r="T2" s="3">
-        <v>0</v>
-      </c>
-      <c r="U2" s="3">
-        <v>0</v>
-      </c>
-      <c r="V2" s="3">
-        <v>0</v>
-      </c>
-      <c r="W2" s="3">
-        <v>0</v>
-      </c>
-      <c r="X2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="3">
+      <c r="A2" s="13">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14">
+        <v>0</v>
+      </c>
+      <c r="L2" s="14">
+        <v>0</v>
+      </c>
+      <c r="M2" s="14">
+        <v>0</v>
+      </c>
+      <c r="N2" s="14">
+        <v>0</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0</v>
+      </c>
+      <c r="P2" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>0</v>
+      </c>
+      <c r="R2" s="14">
+        <v>0</v>
+      </c>
+      <c r="S2" s="14">
+        <v>0</v>
+      </c>
+      <c r="T2" s="14">
+        <v>0</v>
+      </c>
+      <c r="U2" s="14">
+        <v>0</v>
+      </c>
+      <c r="V2" s="14">
+        <v>0</v>
+      </c>
+      <c r="W2" s="14">
+        <v>0</v>
+      </c>
+      <c r="X2" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="4">
         <v>0</v>
       </c>
       <c r="BB2" s="3">
@@ -924,7 +1118,7 @@
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A3" s="3">
+      <c r="A3" s="8">
         <v>0</v>
       </c>
       <c r="B3" s="3">
@@ -1077,10 +1271,10 @@
       <c r="AY3" s="3">
         <v>0</v>
       </c>
-      <c r="AZ3" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="3">
+      <c r="AZ3" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="4">
         <v>0</v>
       </c>
       <c r="BB3" s="3">
@@ -1109,7 +1303,7 @@
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A4" s="3">
+      <c r="A4" s="8">
         <v>0</v>
       </c>
       <c r="B4" s="3">
@@ -1262,10 +1456,10 @@
       <c r="AY4" s="3">
         <v>0</v>
       </c>
-      <c r="AZ4" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="3">
+      <c r="AZ4" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="4">
         <v>0</v>
       </c>
       <c r="BB4" s="3">
@@ -1294,7 +1488,7 @@
       </c>
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A5" s="3">
+      <c r="A5" s="8">
         <v>0</v>
       </c>
       <c r="B5" s="3">
@@ -1447,10 +1641,10 @@
       <c r="AY5" s="3">
         <v>0</v>
       </c>
-      <c r="AZ5" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="3">
+      <c r="AZ5" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="4">
         <v>0</v>
       </c>
       <c r="BB5" s="3">
@@ -1479,7 +1673,7 @@
       </c>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A6" s="3">
+      <c r="A6" s="8">
         <v>0</v>
       </c>
       <c r="B6" s="3">
@@ -1632,10 +1826,10 @@
       <c r="AY6" s="3">
         <v>0</v>
       </c>
-      <c r="AZ6" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="3">
+      <c r="AZ6" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="4">
         <v>0</v>
       </c>
       <c r="BB6" s="3">
@@ -1664,7 +1858,7 @@
       </c>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A7" s="3">
+      <c r="A7" s="8">
         <v>0</v>
       </c>
       <c r="B7" s="3">
@@ -1817,10 +2011,10 @@
       <c r="AY7" s="3">
         <v>0</v>
       </c>
-      <c r="AZ7" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="3">
+      <c r="AZ7" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="4">
         <v>0</v>
       </c>
       <c r="BB7" s="3">
@@ -1849,7 +2043,7 @@
       </c>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A8" s="3">
+      <c r="A8" s="8">
         <v>0</v>
       </c>
       <c r="B8" s="3">
@@ -2002,10 +2196,10 @@
       <c r="AY8" s="3">
         <v>0</v>
       </c>
-      <c r="AZ8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="3">
+      <c r="AZ8" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="4">
         <v>0</v>
       </c>
       <c r="BB8" s="3">
@@ -2034,23 +2228,23 @@
       </c>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A9" s="3">
-        <v>0</v>
+      <c r="A9" s="8">
+        <v>1</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -2187,10 +2381,10 @@
       <c r="AY9" s="3">
         <v>0</v>
       </c>
-      <c r="AZ9" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="3">
+      <c r="AZ9" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="4">
         <v>0</v>
       </c>
       <c r="BB9" s="3">
@@ -2219,7 +2413,7 @@
       </c>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A10" s="3">
+      <c r="A10" s="8">
         <v>0</v>
       </c>
       <c r="B10" s="3">
@@ -2372,10 +2566,10 @@
       <c r="AY10" s="3">
         <v>0</v>
       </c>
-      <c r="AZ10" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="3">
+      <c r="AZ10" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="4">
         <v>0</v>
       </c>
       <c r="BB10" s="3">
@@ -2404,7 +2598,7 @@
       </c>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A11" s="3">
+      <c r="A11" s="8">
         <v>0</v>
       </c>
       <c r="B11" s="3">
@@ -2557,10 +2751,10 @@
       <c r="AY11" s="3">
         <v>0</v>
       </c>
-      <c r="AZ11" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="3">
+      <c r="AZ11" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="4">
         <v>0</v>
       </c>
       <c r="BB11" s="3">
@@ -2589,7 +2783,7 @@
       </c>
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A12" s="3">
+      <c r="A12" s="8">
         <v>0</v>
       </c>
       <c r="B12" s="3">
@@ -2742,10 +2936,10 @@
       <c r="AY12" s="3">
         <v>0</v>
       </c>
-      <c r="AZ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="3">
+      <c r="AZ12" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="4">
         <v>0</v>
       </c>
       <c r="BB12" s="3">
@@ -2774,7 +2968,7 @@
       </c>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A13" s="3">
+      <c r="A13" s="8">
         <v>0</v>
       </c>
       <c r="B13" s="3">
@@ -2784,28 +2978,28 @@
         <v>0</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E13" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I13" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J13" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K13" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
@@ -2927,10 +3121,10 @@
       <c r="AY13" s="3">
         <v>0</v>
       </c>
-      <c r="AZ13" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="3">
+      <c r="AZ13" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="4">
         <v>0</v>
       </c>
       <c r="BB13" s="3">
@@ -2959,41 +3153,41 @@
       </c>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A14" s="3">
+      <c r="A14" s="8">
         <v>0</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -3112,10 +3306,10 @@
       <c r="AY14" s="3">
         <v>0</v>
       </c>
-      <c r="AZ14" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="3">
+      <c r="AZ14" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="4">
         <v>0</v>
       </c>
       <c r="BB14" s="3">
@@ -3144,44 +3338,44 @@
       </c>
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A15" s="3">
+      <c r="A15" s="8">
         <v>0</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -3297,10 +3491,10 @@
       <c r="AY15" s="3">
         <v>0</v>
       </c>
-      <c r="AZ15" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA15" s="3">
+      <c r="AZ15" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="4">
         <v>0</v>
       </c>
       <c r="BB15" s="3">
@@ -3328,164 +3522,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A16" s="3">
-        <v>0</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>0</v>
-      </c>
-      <c r="R16" s="3">
-        <v>0</v>
-      </c>
-      <c r="S16" s="3">
-        <v>0</v>
-      </c>
-      <c r="T16" s="3">
-        <v>0</v>
-      </c>
-      <c r="U16" s="3">
-        <v>0</v>
-      </c>
-      <c r="V16" s="3">
-        <v>0</v>
-      </c>
-      <c r="W16" s="3">
-        <v>0</v>
-      </c>
-      <c r="X16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="3">
+    <row r="16" spans="1:61" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="10">
+        <v>0</v>
+      </c>
+      <c r="B16" s="11">
+        <v>20</v>
+      </c>
+      <c r="C16" s="11">
+        <v>30</v>
+      </c>
+      <c r="D16" s="11">
+        <v>30</v>
+      </c>
+      <c r="E16" s="11">
+        <v>30</v>
+      </c>
+      <c r="F16" s="11">
+        <v>30</v>
+      </c>
+      <c r="G16" s="11">
+        <v>30</v>
+      </c>
+      <c r="H16" s="11">
+        <v>30</v>
+      </c>
+      <c r="I16" s="11">
+        <v>30</v>
+      </c>
+      <c r="J16" s="11">
+        <v>30</v>
+      </c>
+      <c r="K16" s="11">
+        <v>30</v>
+      </c>
+      <c r="L16" s="11">
+        <v>30</v>
+      </c>
+      <c r="M16" s="11">
+        <v>20</v>
+      </c>
+      <c r="N16" s="11">
+        <v>0</v>
+      </c>
+      <c r="O16" s="11">
+        <v>0</v>
+      </c>
+      <c r="P16" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>0</v>
+      </c>
+      <c r="R16" s="11">
+        <v>0</v>
+      </c>
+      <c r="S16" s="11">
+        <v>0</v>
+      </c>
+      <c r="T16" s="11">
+        <v>0</v>
+      </c>
+      <c r="U16" s="11">
+        <v>0</v>
+      </c>
+      <c r="V16" s="11">
+        <v>0</v>
+      </c>
+      <c r="W16" s="11">
+        <v>0</v>
+      </c>
+      <c r="X16" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="4">
         <v>0</v>
       </c>
       <c r="BB16" s="3">

--- a/Excel/ThirdStage.xlsx
+++ b/Excel/ThirdStage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BC1DBA-03D1-40C0-AD27-57EB96CBB9AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE0D03D-EA64-4A73-A801-27D66A1878EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="20280" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="19872" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -739,7 +739,7 @@
   <dimension ref="A1:BI16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2978,28 +2978,28 @@
         <v>0</v>
       </c>
       <c r="D13" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K13" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L13" s="3">
         <v>0</v>
@@ -3160,34 +3160,34 @@
         <v>0</v>
       </c>
       <c r="C14" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -3342,40 +3342,40 @@
         <v>0</v>
       </c>
       <c r="B15" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C15" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -3527,40 +3527,40 @@
         <v>0</v>
       </c>
       <c r="B16" s="11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C16" s="11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D16" s="11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E16" s="11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F16" s="11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G16" s="11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H16" s="11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J16" s="11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K16" s="11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L16" s="11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="M16" s="11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N16" s="11">
         <v>0</v>

--- a/Excel/ThirdStage.xlsx
+++ b/Excel/ThirdStage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528795A4-06BD-4590-BE60-61E0DEAE5C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3FEF90-7A06-48AA-937D-D52E248E7C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="20100" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="20088" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,13 +95,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -114,8 +131,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -124,11 +143,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -140,10 +176,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -152,13 +188,28 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -170,10 +221,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -185,10 +236,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -200,55 +251,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -721,7 +727,7 @@
   <dimension ref="A1:BI16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO10" sqref="AO10"/>
+      <selection activeCell="AO22" sqref="AO22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -730,377 +736,377 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="11">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12">
-        <v>0</v>
-      </c>
-      <c r="C1" s="12">
-        <v>0</v>
-      </c>
-      <c r="D1" s="12">
-        <v>0</v>
-      </c>
-      <c r="E1" s="12">
-        <v>0</v>
-      </c>
-      <c r="F1" s="12">
-        <v>0</v>
-      </c>
-      <c r="G1" s="12">
-        <v>0</v>
-      </c>
-      <c r="H1" s="12">
-        <v>0</v>
-      </c>
-      <c r="I1" s="12">
-        <v>0</v>
-      </c>
-      <c r="J1" s="12">
-        <v>0</v>
-      </c>
-      <c r="K1" s="12">
-        <v>0</v>
-      </c>
-      <c r="L1" s="12">
-        <v>0</v>
-      </c>
-      <c r="M1" s="12">
-        <v>0</v>
-      </c>
-      <c r="N1" s="12">
-        <v>0</v>
-      </c>
-      <c r="O1" s="12">
-        <v>0</v>
-      </c>
-      <c r="P1" s="12">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="12">
-        <v>0</v>
-      </c>
-      <c r="R1" s="12">
-        <v>0</v>
-      </c>
-      <c r="S1" s="12">
-        <v>0</v>
-      </c>
-      <c r="T1" s="12">
-        <v>0</v>
-      </c>
-      <c r="U1" s="12">
-        <v>0</v>
-      </c>
-      <c r="V1" s="12">
-        <v>0</v>
-      </c>
-      <c r="W1" s="12">
-        <v>0</v>
-      </c>
-      <c r="X1" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AG1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AI1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AM1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AO1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AP1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AQ1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AR1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AU1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AV1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AW1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AX1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AY1" s="12">
-        <v>0</v>
-      </c>
-      <c r="AZ1" s="12">
-        <v>0</v>
-      </c>
-      <c r="BA1" s="12">
-        <v>0</v>
-      </c>
-      <c r="BB1" s="12">
-        <v>0</v>
-      </c>
-      <c r="BC1" s="12">
-        <v>0</v>
-      </c>
-      <c r="BD1" s="12">
-        <v>0</v>
-      </c>
-      <c r="BE1" s="12">
-        <v>0</v>
-      </c>
-      <c r="BF1" s="12">
-        <v>0</v>
-      </c>
-      <c r="BG1" s="12">
-        <v>0</v>
-      </c>
-      <c r="BH1" s="12">
-        <v>0</v>
-      </c>
-      <c r="BI1" s="13">
+      <c r="A1" s="8">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9">
+        <v>0</v>
+      </c>
+      <c r="E1" s="9">
+        <v>0</v>
+      </c>
+      <c r="F1" s="9">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9">
+        <v>0</v>
+      </c>
+      <c r="H1" s="9">
+        <v>0</v>
+      </c>
+      <c r="I1" s="9">
+        <v>0</v>
+      </c>
+      <c r="J1" s="9">
+        <v>0</v>
+      </c>
+      <c r="K1" s="9">
+        <v>0</v>
+      </c>
+      <c r="L1" s="9">
+        <v>0</v>
+      </c>
+      <c r="M1" s="9">
+        <v>0</v>
+      </c>
+      <c r="N1" s="9">
+        <v>0</v>
+      </c>
+      <c r="O1" s="9">
+        <v>0</v>
+      </c>
+      <c r="P1" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="9">
+        <v>0</v>
+      </c>
+      <c r="R1" s="9">
+        <v>0</v>
+      </c>
+      <c r="S1" s="9">
+        <v>0</v>
+      </c>
+      <c r="T1" s="9">
+        <v>0</v>
+      </c>
+      <c r="U1" s="9">
+        <v>0</v>
+      </c>
+      <c r="V1" s="9">
+        <v>0</v>
+      </c>
+      <c r="W1" s="9">
+        <v>0</v>
+      </c>
+      <c r="X1" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA1" s="9">
+        <v>0</v>
+      </c>
+      <c r="BB1" s="9">
+        <v>0</v>
+      </c>
+      <c r="BC1" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD1" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE1" s="9">
+        <v>0</v>
+      </c>
+      <c r="BF1" s="9">
+        <v>0</v>
+      </c>
+      <c r="BG1" s="9">
+        <v>0</v>
+      </c>
+      <c r="BH1" s="9">
+        <v>0</v>
+      </c>
+      <c r="BI1" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>11</v>
-      </c>
-      <c r="M2" s="3">
-        <v>11</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3">
-        <v>0</v>
-      </c>
-      <c r="T2" s="3">
-        <v>0</v>
-      </c>
-      <c r="U2" s="3">
-        <v>0</v>
-      </c>
-      <c r="V2" s="3">
-        <v>0</v>
-      </c>
-      <c r="W2" s="3">
-        <v>0</v>
-      </c>
-      <c r="X2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="3">
+      <c r="A2" s="11">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
+        <v>0</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="12">
         <v>5</v>
       </c>
-      <c r="AX2" s="3">
+      <c r="J2" s="12">
         <v>5</v>
       </c>
-      <c r="AY2" s="3">
+      <c r="K2" s="12">
         <v>5</v>
       </c>
-      <c r="AZ2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="3">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="5">
+      <c r="L2" s="12">
+        <v>0</v>
+      </c>
+      <c r="M2" s="12">
+        <v>0</v>
+      </c>
+      <c r="N2" s="12">
+        <v>0</v>
+      </c>
+      <c r="O2" s="12">
+        <v>0</v>
+      </c>
+      <c r="P2" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>0</v>
+      </c>
+      <c r="R2" s="12">
+        <v>0</v>
+      </c>
+      <c r="S2" s="12">
+        <v>0</v>
+      </c>
+      <c r="T2" s="12">
+        <v>0</v>
+      </c>
+      <c r="U2" s="12">
+        <v>0</v>
+      </c>
+      <c r="V2" s="12">
+        <v>0</v>
+      </c>
+      <c r="W2" s="12">
+        <v>0</v>
+      </c>
+      <c r="X2" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="12">
+        <v>5</v>
+      </c>
+      <c r="AX2" s="12">
+        <v>5</v>
+      </c>
+      <c r="AY2" s="12">
+        <v>5</v>
+      </c>
+      <c r="AZ2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="12">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="2">
@@ -1119,22 +1125,22 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K3" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L3" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -1179,16 +1185,16 @@
         <v>0</v>
       </c>
       <c r="AA3" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="2">
         <v>0</v>
@@ -1280,12 +1286,12 @@
       <c r="BH3" s="2">
         <v>0</v>
       </c>
-      <c r="BI3" s="7">
+      <c r="BI3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>0</v>
       </c>
       <c r="B4" s="2">
@@ -1301,22 +1307,22 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K4" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1361,22 +1367,22 @@
         <v>0</v>
       </c>
       <c r="Z4" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="2">
         <v>0</v>
@@ -1397,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="AL4" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AN4" s="2">
         <v>0</v>
@@ -1465,12 +1471,12 @@
       <c r="BH4" s="2">
         <v>0</v>
       </c>
-      <c r="BI4" s="7">
+      <c r="BI4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>0</v>
       </c>
       <c r="B5" s="2">
@@ -1498,133 +1504,133 @@
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K5" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE5" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AN5" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AO5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5" s="2">
         <v>0</v>
@@ -1650,19 +1656,19 @@
       <c r="BH5" s="2">
         <v>0</v>
       </c>
-      <c r="BI5" s="7">
+      <c r="BI5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A6" s="6">
-        <v>0</v>
+      <c r="A6" s="3">
+        <v>31</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -1671,145 +1677,145 @@
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J6" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K6" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S6" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="T6" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="U6" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="V6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="W6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="X6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Y6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Z6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AA6" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="AB6" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="AC6" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="AD6" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="AE6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AF6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AG6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AH6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AI6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AJ6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AK6" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AL6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AM6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AN6" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AO6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AP6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AQ6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AR6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AS6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AT6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AU6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AV6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AW6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AX6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AY6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AZ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="2">
         <v>0</v>
@@ -1835,19 +1841,19 @@
       <c r="BH6" s="2">
         <v>0</v>
       </c>
-      <c r="BI6" s="7">
+      <c r="BI6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A7" s="6">
-        <v>0</v>
+      <c r="A7" s="3">
+        <v>31</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -1856,145 +1862,145 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J7" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="K7" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="P7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R7" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="S7" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="T7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U7" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="V7" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="W7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="X7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Y7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Z7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AA7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AB7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AC7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AD7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AE7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AF7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AG7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AH7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AI7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AJ7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AK7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AL7" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AM7" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AN7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AO7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AP7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AQ7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AR7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AS7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AT7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AU7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AV7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AW7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AX7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AY7" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AZ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="2">
         <v>0</v>
@@ -2020,12 +2026,12 @@
       <c r="BH7" s="2">
         <v>0</v>
       </c>
-      <c r="BI7" s="7">
+      <c r="BI7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>0</v>
       </c>
       <c r="B8" s="2">
@@ -2056,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L8" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -2074,25 +2080,25 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T8" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U8" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V8" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W8" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2">
         <v>0</v>
@@ -2179,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="AZ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2205,12 +2211,12 @@
       <c r="BH8" s="2">
         <v>0</v>
       </c>
-      <c r="BI8" s="7">
+      <c r="BI8" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>1</v>
       </c>
       <c r="B9" s="2">
@@ -2226,145 +2232,145 @@
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M9" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="R9" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S9" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="T9" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="U9" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="V9" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="W9" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="X9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="2">
         <v>0</v>
@@ -2390,12 +2396,12 @@
       <c r="BH9" s="2">
         <v>0</v>
       </c>
-      <c r="BI9" s="7">
+      <c r="BI9" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>0</v>
       </c>
       <c r="B10" s="2">
@@ -2432,10 +2438,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
@@ -2444,25 +2450,25 @@
         <v>0</v>
       </c>
       <c r="Q10" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R10" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="T10" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="U10" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="V10" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W10" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2">
         <v>0</v>
@@ -2575,163 +2581,163 @@
       <c r="BH10" s="2">
         <v>0</v>
       </c>
-      <c r="BI10" s="7">
+      <c r="BI10" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A11" s="6">
-        <v>0</v>
+      <c r="A11" s="3">
+        <v>31</v>
       </c>
       <c r="B11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="N11" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="O11" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R11" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="S11" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="T11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U11" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="V11" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="W11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="X11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Y11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Z11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AA11" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="AB11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AC11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AD11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AE11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AF11" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AG11" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AH11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AI11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AJ11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AK11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AL11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AM11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AN11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AO11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AP11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AQ11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AR11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AS11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AT11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AU11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AV11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AW11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AX11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AY11" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AZ11" s="2">
         <v>0</v>
@@ -2760,163 +2766,163 @@
       <c r="BH11" s="2">
         <v>0</v>
       </c>
-      <c r="BI11" s="7">
+      <c r="BI11" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A12" s="6">
-        <v>0</v>
+      <c r="A12" s="3">
+        <v>31</v>
       </c>
       <c r="B12" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F12" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="L12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M12" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="N12" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="O12" s="2">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S12" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="T12" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="U12" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="V12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="W12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="X12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Y12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Z12" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="AA12" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="AB12" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="AC12" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="AD12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AE12" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AF12" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG12" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AH12" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AI12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AJ12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AK12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AL12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AM12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AN12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AO12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AP12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AQ12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AR12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AS12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AT12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AU12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AV12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AW12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AX12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AY12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AZ12" s="2">
         <v>0</v>
@@ -2945,31 +2951,31 @@
       <c r="BH12" s="2">
         <v>0</v>
       </c>
-      <c r="BI12" s="7">
+      <c r="BI12" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <v>0</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -2984,16 +2990,16 @@
         <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M13" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N13" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2">
         <v>0</v>
@@ -3023,16 +3029,16 @@
         <v>0</v>
       </c>
       <c r="Y13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="2">
         <v>0</v>
@@ -3041,16 +3047,16 @@
         <v>0</v>
       </c>
       <c r="AE13" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="2">
         <v>0</v>
@@ -3130,12 +3136,12 @@
       <c r="BH13" s="2">
         <v>0</v>
       </c>
-      <c r="BI13" s="7">
+      <c r="BI13" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A14" s="6">
+      <c r="A14" s="3">
         <v>0</v>
       </c>
       <c r="B14" s="2">
@@ -3148,16 +3154,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2">
         <v>0</v>
@@ -3166,10 +3172,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
@@ -3211,13 +3217,13 @@
         <v>0</v>
       </c>
       <c r="Z14" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="2">
         <v>0</v>
@@ -3229,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="AF14" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="2">
         <v>0</v>
@@ -3315,12 +3321,12 @@
       <c r="BH14" s="2">
         <v>0</v>
       </c>
-      <c r="BI14" s="7">
+      <c r="BI14" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A15" s="6">
+      <c r="A15" s="3">
         <v>0</v>
       </c>
       <c r="B15" s="2">
@@ -3336,10 +3342,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -3348,10 +3354,10 @@
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K15" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
@@ -3399,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="AA15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="2">
         <v>0</v>
@@ -3500,192 +3506,192 @@
       <c r="BH15" s="2">
         <v>0</v>
       </c>
-      <c r="BI15" s="7">
+      <c r="BI15" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:61" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="8">
-        <v>0</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
-        <v>11</v>
-      </c>
-      <c r="K16" s="9">
-        <v>11</v>
-      </c>
-      <c r="L16" s="9">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
-        <v>0</v>
-      </c>
-      <c r="N16" s="9">
-        <v>0</v>
-      </c>
-      <c r="O16" s="9">
-        <v>0</v>
-      </c>
-      <c r="P16" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="9">
-        <v>0</v>
-      </c>
-      <c r="R16" s="9">
-        <v>0</v>
-      </c>
-      <c r="S16" s="9">
-        <v>0</v>
-      </c>
-      <c r="T16" s="9">
-        <v>0</v>
-      </c>
-      <c r="U16" s="9">
-        <v>0</v>
-      </c>
-      <c r="V16" s="9">
-        <v>0</v>
-      </c>
-      <c r="W16" s="9">
-        <v>0</v>
-      </c>
-      <c r="X16" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="9">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="9">
-        <v>0</v>
-      </c>
-      <c r="BB16" s="9">
-        <v>0</v>
-      </c>
-      <c r="BC16" s="9">
-        <v>0</v>
-      </c>
-      <c r="BD16" s="9">
-        <v>0</v>
-      </c>
-      <c r="BE16" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF16" s="9">
-        <v>0</v>
-      </c>
-      <c r="BG16" s="9">
-        <v>0</v>
-      </c>
-      <c r="BH16" s="9">
-        <v>0</v>
-      </c>
-      <c r="BI16" s="10">
+      <c r="A16" s="5">
+        <v>0</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0</v>
+      </c>
+      <c r="T16" s="6">
+        <v>0</v>
+      </c>
+      <c r="U16" s="6">
+        <v>0</v>
+      </c>
+      <c r="V16" s="6">
+        <v>0</v>
+      </c>
+      <c r="W16" s="6">
+        <v>0</v>
+      </c>
+      <c r="X16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="6">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="6">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="6">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="6">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="6">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="6">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="6">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="6">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="6">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="6">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="7">
         <v>0</v>
       </c>
     </row>

--- a/Excel/ThirdStage.xlsx
+++ b/Excel/ThirdStage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3FEF90-7A06-48AA-937D-D52E248E7C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F2C5B9-8CB2-49E8-A2CE-F6956CE479FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="20088" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -727,7 +727,7 @@
   <dimension ref="A1:BI16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO22" sqref="AO22"/>
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="H2" s="12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I2" s="12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J2" s="12">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K2" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L2" s="12">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="AC2" s="12">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AD2" s="12">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AE2" s="12">
         <v>0</v>
@@ -1033,13 +1033,13 @@
         <v>0</v>
       </c>
       <c r="AL2" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM2" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN2" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO2" s="12">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="AW2" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AX2" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="12">
         <v>0</v>
@@ -1128,16 +1128,16 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I3" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J3" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K3" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
         <v>0</v>
@@ -1155,34 +1155,34 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z3" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA3" s="2">
         <v>0</v>
@@ -1191,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="AC3" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AD3" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AE3" s="2">
         <v>0</v>
@@ -1212,22 +1212,22 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK3" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL3" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM3" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN3" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO3" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP3" s="2">
         <v>0</v>
@@ -1251,13 +1251,13 @@
         <v>0</v>
       </c>
       <c r="AW3" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AX3" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="2">
         <v>0</v>
@@ -1272,19 +1272,19 @@
         <v>0</v>
       </c>
       <c r="BD3" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BE3" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BF3" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BG3" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BH3" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BI3" s="4">
         <v>0</v>
@@ -1313,16 +1313,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I4" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J4" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K4" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <v>0</v>
@@ -1340,46 +1340,46 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="R4" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S4" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="T4" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="U4" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V4" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W4" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X4" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y4" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z4" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA4" s="2">
         <v>0</v>
       </c>
       <c r="AB4" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AC4" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AD4" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AE4" s="2">
         <v>0</v>
@@ -1394,25 +1394,25 @@
         <v>0</v>
       </c>
       <c r="AI4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP4" s="2">
         <v>0</v>
@@ -1436,13 +1436,13 @@
         <v>0</v>
       </c>
       <c r="AW4" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AX4" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="2">
         <v>0</v>
@@ -1454,183 +1454,183 @@
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BD4" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BE4" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BF4" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BG4" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BH4" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BI4" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J5" s="2">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="L5" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="N5" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="O5" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="P5" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S5" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="T5" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U5" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="V5" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="W5" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="X5" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Y5" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Z5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AB5" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AC5" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AD5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AL5" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AM5" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AN5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="2">
         <v>0</v>
@@ -1639,25 +1639,25 @@
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BD5" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BF5" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG5" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH5" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BI5" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.45">
@@ -1671,10 +1671,10 @@
         <v>31</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F6" s="2">
         <v>31</v>
@@ -1713,28 +1713,28 @@
         <v>31</v>
       </c>
       <c r="R6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="T6" s="2">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="U6" s="2">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="V6" s="2">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="W6" s="2">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="X6" s="2">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="Y6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="2">
         <v>31</v>
@@ -1746,76 +1746,76 @@
         <v>31</v>
       </c>
       <c r="AC6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AK6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AL6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AU6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AV6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AW6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AX6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AZ6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" s="2">
         <v>0</v>
@@ -1824,36 +1824,36 @@
         <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BD6" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BE6" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BF6" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG6" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH6" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="BI6" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -1862,34 +1862,34 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="P7" s="2">
         <v>31</v>
@@ -1901,22 +1901,22 @@
         <v>31</v>
       </c>
       <c r="S7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="T7" s="2">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="U7" s="2">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="V7" s="2">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="W7" s="2">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="X7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="2">
         <v>31</v>
@@ -1928,79 +1928,79 @@
         <v>31</v>
       </c>
       <c r="AB7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AL7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AM7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AN7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AS7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AV7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AW7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AX7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA7" s="2">
         <v>0</v>
@@ -2015,13 +2015,13 @@
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BF7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH7" s="2">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R8" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S8" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="T8" s="2">
         <v>0</v>
@@ -2101,13 +2101,13 @@
         <v>0</v>
       </c>
       <c r="X8" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Y8" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Z8" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AA8" s="2">
         <v>0</v>
@@ -2137,28 +2137,28 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AK8" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AL8" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AM8" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AN8" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AO8" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AP8" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AQ8" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AR8" s="2">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>0</v>
       </c>
       <c r="AZ8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="2">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -2241,136 +2241,136 @@
         <v>1</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="S9" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="T9" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="U9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="X9" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="Y9" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="Z9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AJ9" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AK9" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AL9" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AM9" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AN9" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AO9" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AP9" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AQ9" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AR9" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AS9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA9" s="2">
         <v>0</v>
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="S10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="T10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="U10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="V10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="W10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="X10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Y10" s="2">
         <v>0</v>
@@ -2501,40 +2501,40 @@
         <v>0</v>
       </c>
       <c r="AH10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AI10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AJ10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AK10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AL10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AM10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AN10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AO10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AP10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AQ10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AR10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AS10" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AT10" s="2">
         <v>0</v>
@@ -2587,61 +2587,61 @@
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="O11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="S11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="T11" s="2">
         <v>31</v>
@@ -2656,31 +2656,31 @@
         <v>31</v>
       </c>
       <c r="X11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="2">
         <v>31</v>
@@ -2692,28 +2692,28 @@
         <v>31</v>
       </c>
       <c r="AJ11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AP11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AR11" s="2">
         <v>31</v>
@@ -2725,19 +2725,19 @@
         <v>31</v>
       </c>
       <c r="AU11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AV11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AW11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AX11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="2">
         <v>0</v>
@@ -2772,97 +2772,97 @@
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="R12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="S12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="T12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="U12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="V12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="W12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="X12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="2">
         <v>31</v>
@@ -2874,34 +2874,34 @@
         <v>31</v>
       </c>
       <c r="AI12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="2">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="AL12" s="2">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="AM12" s="2">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="AN12" s="2">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="AO12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AS12" s="2">
         <v>31</v>
@@ -2913,16 +2913,16 @@
         <v>31</v>
       </c>
       <c r="AV12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AW12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="2">
         <v>0</v>
@@ -2972,10 +2972,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -3011,13 +3011,13 @@
         <v>0</v>
       </c>
       <c r="S13" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T13" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U13" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V13" s="2">
         <v>0</v>
@@ -3047,13 +3047,13 @@
         <v>0</v>
       </c>
       <c r="AE13" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AF13" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AG13" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AH13" s="2">
         <v>0</v>
@@ -3062,16 +3062,16 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AM13" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AN13" s="2">
         <v>0</v>
@@ -3092,13 +3092,13 @@
         <v>0</v>
       </c>
       <c r="AT13" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AU13" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AV13" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AW13" s="2">
         <v>0</v>
@@ -3151,16 +3151,16 @@
         <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="S14" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T14" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U14" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V14" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W14" s="2">
         <v>0</v>
@@ -3229,13 +3229,13 @@
         <v>0</v>
       </c>
       <c r="AD14" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AE14" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AF14" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AG14" s="2">
         <v>0</v>
@@ -3244,16 +3244,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AJ14" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK14" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL14" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AM14" s="2">
         <v>0</v>
@@ -3268,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="AQ14" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AR14" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AS14" s="2">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="AU14" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AV14" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AW14" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AX14" s="2">
         <v>0</v>
@@ -3336,19 +3336,19 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
@@ -3381,19 +3381,19 @@
         <v>0</v>
       </c>
       <c r="S15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X15" s="2">
         <v>0</v>
@@ -3411,13 +3411,13 @@
         <v>0</v>
       </c>
       <c r="AC15" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AD15" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AE15" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AF15" s="2">
         <v>0</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="AH15" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AI15" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AJ15" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK15" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL15" s="2">
         <v>0</v>
@@ -3450,16 +3450,16 @@
         <v>0</v>
       </c>
       <c r="AP15" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AQ15" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AR15" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AS15" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AT15" s="2">
         <v>0</v>
@@ -3468,13 +3468,13 @@
         <v>0</v>
       </c>
       <c r="AV15" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AW15" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AX15" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AY15" s="2">
         <v>0</v>
@@ -3524,19 +3524,19 @@
         <v>0</v>
       </c>
       <c r="E16" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F16" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G16" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H16" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I16" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J16" s="6">
         <v>0</v>
@@ -3569,10 +3569,10 @@
         <v>0</v>
       </c>
       <c r="T16" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U16" s="6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V16" s="6">
         <v>0</v>
@@ -3596,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="AC16" s="6">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AD16" s="6">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AE16" s="6">
         <v>0</v>
@@ -3608,16 +3608,16 @@
         <v>0</v>
       </c>
       <c r="AG16" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH16" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AI16" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AJ16" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK16" s="6">
         <v>0</v>
@@ -3632,22 +3632,22 @@
         <v>0</v>
       </c>
       <c r="AO16" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AP16" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AQ16" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AR16" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AS16" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AT16" s="6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AU16" s="6">
         <v>0</v>
@@ -3656,10 +3656,10 @@
         <v>0</v>
       </c>
       <c r="AW16" s="6">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AX16" s="6">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AY16" s="6">
         <v>0</v>

--- a/Excel/ThirdStage.xlsx
+++ b/Excel/ThirdStage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F2C5B9-8CB2-49E8-A2CE-F6956CE479FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3D3EE9-A78A-47DA-80EA-228B9B09D680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -727,7 +727,7 @@
   <dimension ref="A1:BI16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+      <selection activeCell="BM7" sqref="BM7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="Q3" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S3" s="2">
         <v>11</v>
@@ -1179,10 +1179,10 @@
         <v>11</v>
       </c>
       <c r="Y3" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="2">
         <v>0</v>
@@ -1272,19 +1272,19 @@
         <v>0</v>
       </c>
       <c r="BD3" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BE3" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BG3" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BH3" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="4">
         <v>0</v>
@@ -1340,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S4" s="2">
         <v>11</v>
@@ -1364,10 +1364,10 @@
         <v>11</v>
       </c>
       <c r="Y4" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="2">
         <v>0</v>
@@ -1454,25 +1454,25 @@
         <v>0</v>
       </c>
       <c r="BC4" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BH4" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.45">
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S5" s="2">
         <v>11</v>
@@ -1549,7 +1549,7 @@
         <v>11</v>
       </c>
       <c r="Y5" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="2">
         <v>0</v>
@@ -1639,25 +1639,25 @@
         <v>0</v>
       </c>
       <c r="BC5" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BG5" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.45">
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T6" s="2">
         <v>11</v>
@@ -1731,7 +1731,7 @@
         <v>11</v>
       </c>
       <c r="X6" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="2">
         <v>0</v>
@@ -1824,25 +1824,25 @@
         <v>0</v>
       </c>
       <c r="BC6" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BE6" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BF6" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BG6" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH6" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.45">
@@ -1904,16 +1904,16 @@
         <v>0</v>
       </c>
       <c r="T7" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U7" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V7" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W7" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2">
         <v>0</v>
@@ -2015,13 +2015,13 @@
         <v>0</v>
       </c>
       <c r="BE7" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BG7" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH7" s="2">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="BF8" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BG8" s="2">
         <v>0</v>
@@ -2385,13 +2385,13 @@
         <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BF9" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG9" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH9" s="2">
         <v>0</v>
@@ -2510,22 +2510,22 @@
         <v>31</v>
       </c>
       <c r="AK10" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="2">
         <v>31</v>
@@ -2570,13 +2570,13 @@
         <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BF10" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG10" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH10" s="2">
         <v>0</v>
@@ -2755,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BF11" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG11" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH11" s="2">
         <v>0</v>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="BF12" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG12" s="2">
         <v>0</v>

--- a/Excel/ThirdStage.xlsx
+++ b/Excel/ThirdStage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3D3EE9-A78A-47DA-80EA-228B9B09D680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ACB80B-6B67-49E7-8D04-9FC0D4107184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -315,6 +315,16 @@
   <dxfs count="8">
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFC000"/>
       </font>
       <fill>
@@ -330,16 +340,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -724,18 +724,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BM7" sqref="BM7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BL8" sqref="BL8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="100" width="3.09765625" customWidth="1"/>
+    <col min="1" max="100" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:61" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8">
         <v>0</v>
       </c>
@@ -920,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -943,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2" s="12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J2" s="12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K2" s="12">
         <v>0</v>
@@ -1105,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1128,13 +1129,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J3" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -1161,22 +1162,22 @@
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T3" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U3" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V3" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W3" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X3" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y3" s="2">
         <v>0</v>
@@ -1290,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1313,13 +1314,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I4" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J4" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1346,22 +1347,22 @@
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T4" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U4" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V4" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W4" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X4" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y4" s="2">
         <v>0</v>
@@ -1475,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>31</v>
       </c>
@@ -1531,22 +1532,22 @@
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T5" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U5" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V5" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W5" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X5" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y5" s="2">
         <v>0</v>
@@ -1660,7 +1661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>31</v>
       </c>
@@ -1719,16 +1720,16 @@
         <v>0</v>
       </c>
       <c r="T6" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="U6" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V6" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W6" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X6" s="2">
         <v>0</v>
@@ -1845,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -2030,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>0</v>
       </c>
@@ -2215,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>0</v>
       </c>
@@ -2585,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>0</v>
       </c>
@@ -2770,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -2880,16 +2881,16 @@
         <v>0</v>
       </c>
       <c r="AK12" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL12" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM12" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AN12" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO12" s="2">
         <v>0</v>
@@ -2955,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>0</v>
       </c>
@@ -3062,16 +3063,16 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK13" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL13" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM13" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AN13" s="2">
         <v>0</v>
@@ -3140,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>0</v>
       </c>
@@ -3244,16 +3245,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ14" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK14" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL14" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM14" s="2">
         <v>0</v>
@@ -3268,10 +3269,10 @@
         <v>0</v>
       </c>
       <c r="AQ14" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR14" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS14" s="2">
         <v>0</v>
@@ -3325,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>0</v>
       </c>
@@ -3426,16 +3427,16 @@
         <v>0</v>
       </c>
       <c r="AH15" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI15" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ15" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK15" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL15" s="2">
         <v>0</v>
@@ -3450,16 +3451,16 @@
         <v>0</v>
       </c>
       <c r="AP15" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AQ15" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR15" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS15" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT15" s="2">
         <v>0</v>
@@ -3510,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:61" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:61" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0</v>
       </c>
@@ -3608,16 +3609,16 @@
         <v>0</v>
       </c>
       <c r="AG16" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH16" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI16" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ16" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK16" s="6">
         <v>0</v>
@@ -3632,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="AO16" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP16" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AQ16" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR16" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS16" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AT16" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AU16" s="6">
         <v>0</v>
@@ -3713,13 +3714,13 @@
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
-      <formula>11</formula>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel/ThirdStage.xlsx
+++ b/Excel/ThirdStage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3D3EE9-A78A-47DA-80EA-228B9B09D680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1436A5-E486-47B6-A6C8-00E03F8F9DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
@@ -221,9 +221,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -236,9 +234,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -251,9 +247,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -727,7 +721,7 @@
   <dimension ref="A1:BI16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BM7" sqref="BM7"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -943,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I2" s="12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J2" s="12">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K2" s="12">
         <v>0</v>
@@ -1006,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="AC2" s="12">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="12">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="12">
         <v>0</v>
@@ -1033,13 +1027,13 @@
         <v>0</v>
       </c>
       <c r="AL2" s="12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="12">
         <v>0</v>
@@ -1128,13 +1122,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -1161,22 +1155,22 @@
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T3" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U3" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V3" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W3" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X3" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="2">
         <v>0</v>
@@ -1191,10 +1185,10 @@
         <v>0</v>
       </c>
       <c r="AC3" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="2">
         <v>0</v>
@@ -1212,22 +1206,22 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AN3" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="2">
         <v>0</v>
@@ -1313,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
@@ -1346,22 +1340,22 @@
         <v>0</v>
       </c>
       <c r="S4" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U4" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V4" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W4" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X4" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="2">
         <v>0</v>
@@ -1373,13 +1367,13 @@
         <v>0</v>
       </c>
       <c r="AB4" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="2">
         <v>0</v>
@@ -1394,25 +1388,25 @@
         <v>0</v>
       </c>
       <c r="AI4" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AL4" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AN4" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="2">
         <v>0</v>
@@ -1477,52 +1471,52 @@
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="O5" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="P5" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <v>0</v>
@@ -1531,22 +1525,22 @@
         <v>0</v>
       </c>
       <c r="S5" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="T5" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U5" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V5" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W5" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X5" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="2">
         <v>0</v>
@@ -1555,13 +1549,13 @@
         <v>0</v>
       </c>
       <c r="AA5" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="2">
         <v>0</v>
@@ -1585,13 +1579,13 @@
         <v>0</v>
       </c>
       <c r="AK5" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="2">
         <v>0</v>
@@ -1645,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="BE5" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF5" s="2">
         <v>0</v>
@@ -1662,55 +1656,55 @@
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
@@ -1719,16 +1713,16 @@
         <v>0</v>
       </c>
       <c r="T6" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U6" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V6" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2">
         <v>0</v>
@@ -1737,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="Z6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="2">
         <v>0</v>
@@ -1892,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="P7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="R7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="S7" s="2">
         <v>0</v>
@@ -1919,13 +1913,13 @@
         <v>0</v>
       </c>
       <c r="Y7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="2">
         <v>0</v>
@@ -2031,7 +2025,7 @@
       </c>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>0</v>
       </c>
       <c r="B8" s="2">
@@ -2080,13 +2074,13 @@
         <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="R8" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="T8" s="2">
         <v>0</v>
@@ -2101,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="X8" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="2">
         <v>0</v>
@@ -2137,28 +2131,28 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AL8" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="2">
         <v>0</v>
@@ -2216,32 +2210,32 @@
       </c>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A9" s="3">
-        <v>1</v>
+      <c r="A9" s="2">
+        <v>0</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -2268,13 +2262,13 @@
         <v>0</v>
       </c>
       <c r="R9" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="S9" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="T9" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
@@ -2283,13 +2277,13 @@
         <v>0</v>
       </c>
       <c r="W9" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="X9" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="2">
         <v>0</v>
@@ -2319,34 +2313,34 @@
         <v>0</v>
       </c>
       <c r="AI9" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AL9" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AN9" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AQ9" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="2">
         <v>0</v>
@@ -2385,13 +2379,13 @@
         <v>0</v>
       </c>
       <c r="BE9" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BF9" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH9" s="2">
         <v>0</v>
@@ -2401,7 +2395,7 @@
       </c>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>0</v>
       </c>
       <c r="B10" s="2">
@@ -2456,22 +2450,22 @@
         <v>0</v>
       </c>
       <c r="S10" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="T10" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="U10" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="V10" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="W10" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="2">
         <v>0</v>
@@ -2501,13 +2495,13 @@
         <v>0</v>
       </c>
       <c r="AH10" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="2">
         <v>0</v>
@@ -2528,13 +2522,13 @@
         <v>0</v>
       </c>
       <c r="AQ10" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AR10" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AS10" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="2">
         <v>0</v>
@@ -2570,13 +2564,13 @@
         <v>0</v>
       </c>
       <c r="BE10" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BF10" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BG10" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH10" s="2">
         <v>0</v>
@@ -2587,19 +2581,19 @@
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -2644,16 +2638,16 @@
         <v>0</v>
       </c>
       <c r="T11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="U11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="V11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="W11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2">
         <v>0</v>
@@ -2683,13 +2677,13 @@
         <v>0</v>
       </c>
       <c r="AG11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="2">
         <v>0</v>
@@ -2716,13 +2710,13 @@
         <v>0</v>
       </c>
       <c r="AR11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="2">
         <v>0</v>
@@ -2755,13 +2749,13 @@
         <v>0</v>
       </c>
       <c r="BE11" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BF11" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BG11" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BH11" s="2">
         <v>0</v>
@@ -2787,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -2865,13 +2859,13 @@
         <v>0</v>
       </c>
       <c r="AF12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="2">
         <v>0</v>
@@ -2880,16 +2874,16 @@
         <v>0</v>
       </c>
       <c r="AK12" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="2">
         <v>0</v>
@@ -2904,13 +2898,13 @@
         <v>0</v>
       </c>
       <c r="AS12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="2">
         <v>0</v>
@@ -2943,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="BF12" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="2">
         <v>0</v>
@@ -2972,10 +2966,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -3011,13 +3005,13 @@
         <v>0</v>
       </c>
       <c r="S13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V13" s="2">
         <v>0</v>
@@ -3047,13 +3041,13 @@
         <v>0</v>
       </c>
       <c r="AE13" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="2">
         <v>0</v>
@@ -3062,16 +3056,16 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="2">
         <v>0</v>
@@ -3092,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="AT13" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AW13" s="2">
         <v>0</v>
@@ -3151,16 +3145,16 @@
         <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -3196,16 +3190,16 @@
         <v>0</v>
       </c>
       <c r="S14" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T14" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U14" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V14" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W14" s="2">
         <v>0</v>
@@ -3229,13 +3223,13 @@
         <v>0</v>
       </c>
       <c r="AD14" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="2">
         <v>0</v>
@@ -3244,16 +3238,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="2">
         <v>0</v>
@@ -3268,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="AQ14" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR14" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="2">
         <v>0</v>
@@ -3280,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="AU14" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AV14" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AW14" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AX14" s="2">
         <v>0</v>
@@ -3336,19 +3330,19 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
         <v>0</v>
@@ -3381,19 +3375,19 @@
         <v>0</v>
       </c>
       <c r="S15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W15" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2">
         <v>0</v>
@@ -3411,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="AC15" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="2">
         <v>0</v>
@@ -3426,16 +3420,16 @@
         <v>0</v>
       </c>
       <c r="AH15" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="2">
         <v>0</v>
@@ -3450,16 +3444,16 @@
         <v>0</v>
       </c>
       <c r="AP15" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR15" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS15" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="2">
         <v>0</v>
@@ -3468,13 +3462,13 @@
         <v>0</v>
       </c>
       <c r="AV15" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AW15" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AX15" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="2">
         <v>0</v>
@@ -3524,19 +3518,19 @@
         <v>0</v>
       </c>
       <c r="E16" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F16" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G16" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H16" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I16" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J16" s="6">
         <v>0</v>
@@ -3569,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="T16" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U16" s="6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V16" s="6">
         <v>0</v>
@@ -3596,10 +3590,10 @@
         <v>0</v>
       </c>
       <c r="AC16" s="6">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="6">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="6">
         <v>0</v>
@@ -3608,16 +3602,16 @@
         <v>0</v>
       </c>
       <c r="AG16" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="6">
         <v>0</v>
@@ -3632,22 +3626,22 @@
         <v>0</v>
       </c>
       <c r="AO16" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AS16" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="6">
         <v>0</v>
@@ -3656,10 +3650,10 @@
         <v>0</v>
       </c>
       <c r="AW16" s="6">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AX16" s="6">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="6">
         <v>0</v>

--- a/Excel/ThirdStage.xlsx
+++ b/Excel/ThirdStage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1436A5-E486-47B6-A6C8-00E03F8F9DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3AEC24-1A2D-4BE6-8EA1-A779355D6EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="28680" yWindow="-9000" windowWidth="16440" windowHeight="28320" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -306,7 +306,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -382,6 +382,92 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -721,15 +807,15 @@
   <dimension ref="A1:BI16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="100" width="3.09765625" customWidth="1"/>
+    <col min="1" max="100" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:61" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8">
         <v>0</v>
       </c>
@@ -914,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -1099,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1284,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1469,7 +1555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -1654,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -1839,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -2024,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -2209,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -2394,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -2579,9 +2665,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -2764,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -2949,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>0</v>
       </c>
@@ -3134,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>0</v>
       </c>
@@ -3319,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>0</v>
       </c>
@@ -3504,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:61" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:61" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0</v>
       </c>
@@ -3692,29 +3778,32 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BI16">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>11</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/ThirdStage.xlsx
+++ b/Excel/ThirdStage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00ED10FB-484D-41D4-A8B1-7F54FC7F892A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FD8A00-DB88-4656-9149-2D87566CA10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="19764" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,14 +48,6 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -254,7 +246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,64 +286,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF99"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -775,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <dimension ref="A1:BI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE15" sqref="AE15"/>
+    <sheetView tabSelected="1" topLeftCell="N2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1052,67 +991,67 @@
         <v>20</v>
       </c>
       <c r="AB2" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AC2" s="12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AD2" s="12">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AE2" s="12">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AF2" s="12">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AG2" s="12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH2" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AI2" s="2">
         <v>20</v>
       </c>
-      <c r="AJ2" s="12">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="12">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="12">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="12">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="12">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="12">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="12">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="12">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="12">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="12">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="12">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="12">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="12">
-        <v>0</v>
+      <c r="AJ2" s="2">
+        <v>30</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>30</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>30</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>30</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>30</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>30</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>30</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>30</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>30</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>30</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>30</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>30</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>30</v>
       </c>
       <c r="AW2" s="12">
         <v>30</v>
@@ -1192,13 +1131,13 @@
         <v>30</v>
       </c>
       <c r="M3" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O3" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P3" s="2">
         <v>30</v>
@@ -1237,7 +1176,7 @@
         <v>31</v>
       </c>
       <c r="AB3" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AC3" s="2">
         <v>0</v>
@@ -1255,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="AH3" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AI3" s="2">
         <v>31</v>
@@ -1264,40 +1203,40 @@
         <v>20</v>
       </c>
       <c r="AK3" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AL3" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AM3" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AN3" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AO3" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AP3" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AQ3" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AR3" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AS3" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AT3" s="2">
         <v>30</v>
       </c>
       <c r="AU3" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AV3" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AW3" s="2">
         <v>30</v>
@@ -1374,19 +1313,19 @@
         <v>30</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O4" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P4" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="2">
         <v>30</v>
@@ -1413,7 +1352,7 @@
         <v>30</v>
       </c>
       <c r="Y4" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z4" s="2">
         <v>20</v>
@@ -1443,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="2">
         <v>0</v>
@@ -1461,13 +1400,13 @@
         <v>0</v>
       </c>
       <c r="AO4" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AP4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR4" s="2">
         <v>0</v>
@@ -1476,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="AT4" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AU4" s="2">
         <v>30</v>
       </c>
       <c r="AV4" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AW4" s="2">
         <v>30</v>
@@ -1556,25 +1495,25 @@
         <v>30</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O5" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P5" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="R5" s="2">
         <v>30</v>
@@ -1595,10 +1534,10 @@
         <v>30</v>
       </c>
       <c r="X5" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y5" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z5" s="2">
         <v>20</v>
@@ -1613,13 +1552,13 @@
         <v>0</v>
       </c>
       <c r="AD5" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE5" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AF5" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG5" s="2">
         <v>0</v>
@@ -1628,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="AI5" s="2">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="2">
         <v>0</v>
@@ -1643,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="AN5" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO5" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AP5" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ5" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR5" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS5" s="2">
         <v>0</v>
@@ -1664,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="AU5" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AV5" s="2">
         <v>30</v>
@@ -1741,107 +1680,107 @@
         <v>30</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O6" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P6" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="2">
+        <v>30</v>
+      </c>
+      <c r="R6" s="2">
+        <v>30</v>
+      </c>
+      <c r="S6" s="2">
+        <v>30</v>
+      </c>
+      <c r="T6" s="2">
+        <v>30</v>
+      </c>
+      <c r="U6" s="2">
+        <v>30</v>
+      </c>
+      <c r="V6" s="2">
+        <v>30</v>
+      </c>
+      <c r="W6" s="2">
+        <v>30</v>
+      </c>
+      <c r="X6" s="2">
+        <v>30</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>31</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>13</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>13</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>13</v>
+      </c>
+      <c r="AR6" s="2">
         <v>10</v>
       </c>
-      <c r="R6" s="2">
-        <v>30</v>
-      </c>
-      <c r="S6" s="2">
-        <v>30</v>
-      </c>
-      <c r="T6" s="2">
-        <v>30</v>
-      </c>
-      <c r="U6" s="2">
-        <v>30</v>
-      </c>
-      <c r="V6" s="2">
-        <v>30</v>
-      </c>
-      <c r="W6" s="2">
-        <v>31</v>
-      </c>
-      <c r="X6" s="2">
-        <v>31</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>31</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>31</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="2">
-        <v>31</v>
-      </c>
-      <c r="AJ6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="2">
-        <v>0</v>
-      </c>
       <c r="AS6" s="2">
         <v>0</v>
       </c>
@@ -1852,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="AV6" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AW6" s="2">
         <v>30</v>
@@ -1905,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
         <v>31</v>
@@ -1926,31 +1865,31 @@
         <v>30</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N7" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O7" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P7" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R7" s="2">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="S7" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T7" s="2">
         <v>30</v>
@@ -1959,13 +1898,13 @@
         <v>30</v>
       </c>
       <c r="V7" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W7" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X7" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y7" s="2">
         <v>30</v>
@@ -2004,28 +1943,28 @@
         <v>20</v>
       </c>
       <c r="AK7" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AL7" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AM7" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AN7" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AO7" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AP7" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AQ7" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AR7" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AS7" s="2">
         <v>0</v>
@@ -2037,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="AV7" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AW7" s="2">
         <v>30</v>
@@ -2087,10 +2026,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
         <v>31</v>
@@ -2114,40 +2053,40 @@
         <v>30</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O8" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="2">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="R8" s="2">
         <v>31</v>
       </c>
       <c r="S8" s="2">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="T8" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="U8" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V8" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W8" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X8" s="2">
         <v>30</v>
@@ -2186,34 +2125,34 @@
         <v>20</v>
       </c>
       <c r="AJ8" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK8" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL8" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM8" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AN8" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO8" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AP8" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AQ8" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AR8" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AS8" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AT8" s="2">
         <v>0</v>
@@ -2222,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="AV8" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AW8" s="2">
         <v>30</v>
@@ -2302,112 +2241,112 @@
         <v>30</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N9" s="2">
+        <v>20</v>
+      </c>
+      <c r="O9" s="2">
+        <v>20</v>
+      </c>
+      <c r="P9" s="2">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>31</v>
+      </c>
+      <c r="R9" s="2">
+        <v>31</v>
+      </c>
+      <c r="S9" s="2">
+        <v>31</v>
+      </c>
+      <c r="T9" s="2">
+        <v>20</v>
+      </c>
+      <c r="U9" s="2">
+        <v>20</v>
+      </c>
+      <c r="V9" s="2">
+        <v>30</v>
+      </c>
+      <c r="W9" s="2">
+        <v>30</v>
+      </c>
+      <c r="X9" s="2">
+        <v>30</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>30</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>30</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>30</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>31</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>31</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>31</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>31</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>20</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>30</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>30</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>30</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>30</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>30</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>30</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>30</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>30</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>30</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>30</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>20</v>
+      </c>
+      <c r="AT9" s="2">
         <v>10</v>
       </c>
-      <c r="O9" s="2">
-        <v>10</v>
-      </c>
-      <c r="P9" s="2">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>31</v>
-      </c>
-      <c r="R9" s="2">
-        <v>31</v>
-      </c>
-      <c r="S9" s="2">
-        <v>31</v>
-      </c>
-      <c r="T9" s="2">
-        <v>31</v>
-      </c>
-      <c r="U9" s="2">
-        <v>31</v>
-      </c>
-      <c r="V9" s="2">
-        <v>31</v>
-      </c>
-      <c r="W9" s="2">
-        <v>30</v>
-      </c>
-      <c r="X9" s="2">
-        <v>30</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>30</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>30</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>30</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>31</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>31</v>
-      </c>
-      <c r="AE9" s="2">
-        <v>31</v>
-      </c>
-      <c r="AF9" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>31</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>20</v>
-      </c>
-      <c r="AI9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="2">
-        <v>30</v>
-      </c>
-      <c r="AT9" s="2">
-        <v>0</v>
-      </c>
       <c r="AU9" s="2">
         <v>0</v>
       </c>
       <c r="AV9" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AW9" s="2">
         <v>30</v>
@@ -2487,16 +2426,16 @@
         <v>30</v>
       </c>
       <c r="M10" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N10" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="2">
         <v>31</v>
@@ -2511,7 +2450,7 @@
         <v>31</v>
       </c>
       <c r="U10" s="2">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="V10" s="2">
         <v>30</v>
@@ -2550,49 +2489,49 @@
         <v>20</v>
       </c>
       <c r="AH10" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI10" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ10" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK10" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL10" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM10" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AN10" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO10" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AP10" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AQ10" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AR10" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AS10" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AT10" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AU10" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV10" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AW10" s="2">
         <v>30</v>
@@ -2672,19 +2611,19 @@
         <v>30</v>
       </c>
       <c r="M11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R11" s="2">
         <v>31</v>
@@ -2696,88 +2635,88 @@
         <v>31</v>
       </c>
       <c r="U11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="V11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Z11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AA11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AB11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AC11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AD11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AE11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AF11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AG11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AH11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AI11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AJ11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AK11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AL11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AM11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AN11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AO11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AP11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AQ11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AR11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AS11" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AT11" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AU11" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV11" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AW11" s="2">
         <v>30</v>
@@ -2833,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F12" s="2">
         <v>20</v>
@@ -2860,85 +2799,85 @@
         <v>30</v>
       </c>
       <c r="N12" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="O12" s="2">
         <v>20</v>
       </c>
       <c r="P12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R12" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S12" s="2">
+        <v>31</v>
+      </c>
+      <c r="T12" s="2">
+        <v>31</v>
+      </c>
+      <c r="U12" s="2">
+        <v>20</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
         <v>13</v>
       </c>
-      <c r="T12" s="2">
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
         <v>13</v>
       </c>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-      <c r="V12" s="2">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
-      <c r="X12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>0</v>
-      </c>
       <c r="Z12" s="2">
         <v>0</v>
       </c>
       <c r="AA12" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AB12" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="AD12" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="AF12" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="AH12" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="AJ12" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="2">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AL12" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO12" s="2">
         <v>0</v>
@@ -2956,13 +2895,13 @@
         <v>0</v>
       </c>
       <c r="AT12" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AU12" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AV12" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AW12" s="2">
         <v>30</v>
@@ -3015,112 +2954,112 @@
         <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G13" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H13" s="2">
         <v>20</v>
       </c>
       <c r="I13" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J13" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K13" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L13" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M13" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N13" s="2">
         <v>20</v>
       </c>
       <c r="O13" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P13" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="R13" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="S13" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="T13" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U13" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="V13" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="W13" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="X13" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Y13" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Z13" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AA13" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AB13" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AC13" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AD13" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AE13" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF13" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG13" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AH13" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AI13" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AJ13" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AK13" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AL13" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AM13" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AN13" s="2">
         <v>0</v>
@@ -3132,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="AQ13" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR13" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AS13" s="2">
         <v>20</v>
@@ -3147,7 +3086,7 @@
         <v>20</v>
       </c>
       <c r="AV13" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AW13" s="2">
         <v>30</v>
@@ -3203,31 +3142,31 @@
         <v>1</v>
       </c>
       <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
         <v>2</v>
       </c>
-      <c r="F14" s="2">
+      <c r="H14" s="2">
+        <v>13</v>
+      </c>
+      <c r="I14" s="2">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2">
+        <v>13</v>
+      </c>
+      <c r="K14" s="2">
         <v>10</v>
       </c>
-      <c r="G14" s="2">
+      <c r="L14" s="2">
         <v>10</v>
       </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>20</v>
-      </c>
-      <c r="J14" s="13">
-        <v>103</v>
-      </c>
-      <c r="K14" s="2">
-        <v>20</v>
-      </c>
-      <c r="L14" s="2">
-        <v>20</v>
-      </c>
       <c r="M14" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N14" s="2">
         <v>0</v>
@@ -3245,91 +3184,91 @@
         <v>0</v>
       </c>
       <c r="S14" s="2">
+        <v>13</v>
+      </c>
+      <c r="T14" s="2">
+        <v>13</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
         <v>10</v>
       </c>
-      <c r="T14" s="2">
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
         <v>10</v>
       </c>
-      <c r="U14" s="2">
-        <v>20</v>
-      </c>
-      <c r="V14" s="2">
-        <v>20</v>
-      </c>
-      <c r="W14" s="2">
-        <v>20</v>
-      </c>
-      <c r="X14" s="2">
-        <v>20</v>
-      </c>
       <c r="Y14" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA14" s="2">
         <v>0</v>
       </c>
       <c r="AB14" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC14" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AE14" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AG14" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AI14" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AK14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="2">
         <v>10</v>
       </c>
-      <c r="AL14" s="2">
-        <v>13</v>
-      </c>
       <c r="AM14" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP14" s="2">
         <v>20</v>
       </c>
       <c r="AQ14" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AR14" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AS14" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AT14" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AU14" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AV14" s="2">
         <v>30</v>
@@ -3375,17 +3314,17 @@
       </c>
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.45">
-      <c r="A15" s="3">
-        <v>0</v>
+      <c r="A15" s="2">
+        <v>20</v>
       </c>
       <c r="B15" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -3394,22 +3333,22 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>13</v>
+      </c>
+      <c r="J15" s="2">
+        <v>13</v>
+      </c>
+      <c r="K15" s="2">
         <v>10</v>
       </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M15" s="2">
         <v>0</v>
@@ -3439,13 +3378,13 @@
         <v>20</v>
       </c>
       <c r="V15" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="W15" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="X15" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Y15" s="2">
         <v>20</v>
@@ -3454,43 +3393,43 @@
         <v>20</v>
       </c>
       <c r="AA15" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AB15" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC15" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AD15" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AE15" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF15" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG15" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH15" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI15" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK15" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AL15" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AM15" s="2">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AN15" s="2">
         <v>20</v>
@@ -3499,22 +3438,22 @@
         <v>20</v>
       </c>
       <c r="AP15" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AQ15" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AR15" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AS15" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AT15" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AU15" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AV15" s="2">
         <v>30</v>
@@ -3561,142 +3500,142 @@
     </row>
     <row r="16" spans="1:61" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B16" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C16" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="E16" s="2">
+        <v>20</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="H16" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" s="2">
+        <v>20</v>
+      </c>
+      <c r="J16" s="2">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2">
+        <v>20</v>
+      </c>
+      <c r="L16" s="2">
+        <v>20</v>
+      </c>
+      <c r="M16" s="2">
+        <v>20</v>
+      </c>
+      <c r="N16" s="2">
+        <v>20</v>
+      </c>
+      <c r="O16" s="2">
+        <v>20</v>
+      </c>
+      <c r="P16" s="2">
+        <v>20</v>
       </c>
       <c r="Q16" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R16" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S16" s="2">
         <v>20</v>
       </c>
-      <c r="T16" s="2">
-        <v>20</v>
-      </c>
-      <c r="U16" s="2">
-        <v>30</v>
-      </c>
-      <c r="V16" s="2">
-        <v>30</v>
-      </c>
-      <c r="W16" s="2">
-        <v>30</v>
-      </c>
-      <c r="X16" s="2">
-        <v>30</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>30</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA16" s="2">
-        <v>20</v>
+      <c r="T16" s="6">
+        <v>30</v>
+      </c>
+      <c r="U16" s="6">
+        <v>30</v>
+      </c>
+      <c r="V16" s="6">
+        <v>30</v>
+      </c>
+      <c r="W16" s="6">
+        <v>30</v>
+      </c>
+      <c r="X16" s="6">
+        <v>30</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>30</v>
+      </c>
+      <c r="Z16" s="6">
+        <v>30</v>
+      </c>
+      <c r="AA16" s="6">
+        <v>30</v>
       </c>
       <c r="AB16" s="6">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AC16" s="6">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="AD16" s="6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AE16" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF16" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG16" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AH16" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI16" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ16" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK16" s="6">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="2">
-        <v>10</v>
-      </c>
-      <c r="AM16" s="2">
-        <v>13</v>
-      </c>
-      <c r="AN16" s="2">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="AL16" s="6">
+        <v>30</v>
+      </c>
+      <c r="AM16" s="6">
+        <v>30</v>
+      </c>
+      <c r="AN16" s="6">
+        <v>30</v>
       </c>
       <c r="AO16" s="6">
         <v>30</v>
       </c>
       <c r="AP16" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AQ16" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AR16" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AS16" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AT16" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AU16" s="6">
         <v>30</v>
@@ -3746,50 +3685,33 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A14:I14 A15:BI16 K14:BI14 A1:BI13">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+  <conditionalFormatting sqref="A1:BI16">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
       <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>111</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>112</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>103</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
-      <formula>102</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>101</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/ThirdStage.xlsx
+++ b/Excel/ThirdStage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FD8A00-DB88-4656-9149-2D87566CA10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BF97A2-3FDA-436B-ABA0-4121B6B12A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="768" yWindow="720" windowWidth="10920" windowHeight="12240" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <dimension ref="A1:BI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO7" sqref="AO7"/>
+    <sheetView tabSelected="1" topLeftCell="M2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1394,20 +1394,18 @@
         <v>0</v>
       </c>
       <c r="AM4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN4" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO4" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP4" s="2">
         <v>10</v>
       </c>
-      <c r="AQ4" s="2">
-        <v>10</v>
-      </c>
+      <c r="AQ4" s="2"/>
       <c r="AR4" s="2">
         <v>0</v>
       </c>
@@ -1576,10 +1574,10 @@
         <v>0</v>
       </c>
       <c r="AL5" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM5" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN5" s="2">
         <v>13</v>
@@ -1757,17 +1755,15 @@
       <c r="AJ6" s="2">
         <v>0</v>
       </c>
-      <c r="AK6" s="2">
-        <v>0</v>
-      </c>
+      <c r="AK6" s="2"/>
       <c r="AL6" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM6" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN6" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO6" s="2">
         <v>13</v>
@@ -2846,15 +2842,11 @@
       <c r="AC12" s="2">
         <v>13</v>
       </c>
-      <c r="AD12" s="2">
-        <v>0</v>
-      </c>
+      <c r="AD12" s="2"/>
       <c r="AE12" s="2">
         <v>13</v>
       </c>
-      <c r="AF12" s="2">
-        <v>0</v>
-      </c>
+      <c r="AF12" s="2"/>
       <c r="AG12" s="2">
         <v>13</v>
       </c>
@@ -2883,16 +2875,16 @@
         <v>0</v>
       </c>
       <c r="AP12" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AQ12" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AR12" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AS12" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AT12" s="2">
         <v>13</v>
@@ -3067,20 +3059,18 @@
       <c r="AO13" s="2">
         <v>0</v>
       </c>
-      <c r="AP13" s="2">
-        <v>0</v>
-      </c>
+      <c r="AP13" s="2"/>
       <c r="AQ13" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AR13" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AS13" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AT13" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AU13" s="2">
         <v>20</v>
@@ -3225,21 +3215,15 @@
       <c r="AF14" s="2">
         <v>10</v>
       </c>
-      <c r="AG14" s="2">
-        <v>0</v>
-      </c>
+      <c r="AG14" s="2"/>
       <c r="AH14" s="2">
         <v>10</v>
       </c>
-      <c r="AI14" s="2">
-        <v>0</v>
-      </c>
+      <c r="AI14" s="2"/>
       <c r="AJ14" s="2">
         <v>10</v>
       </c>
-      <c r="AK14" s="2">
-        <v>0</v>
-      </c>
+      <c r="AK14" s="2"/>
       <c r="AL14" s="2">
         <v>10</v>
       </c>

--- a/Excel/ThirdStage.xlsx
+++ b/Excel/ThirdStage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BF97A2-3FDA-436B-ABA0-4121B6B12A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FB1E82-78AD-4E2E-8241-580889F41AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="720" windowWidth="10920" windowHeight="12240" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -715,7 +715,7 @@
   <dimension ref="A1:BI16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL10" sqref="AL10"/>
+      <selection activeCell="AK7" sqref="AK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1405,7 +1405,9 @@
       <c r="AP4" s="2">
         <v>10</v>
       </c>
-      <c r="AQ4" s="2"/>
+      <c r="AQ4" s="2">
+        <v>0</v>
+      </c>
       <c r="AR4" s="2">
         <v>0</v>
       </c>
@@ -1755,7 +1757,9 @@
       <c r="AJ6" s="2">
         <v>0</v>
       </c>
-      <c r="AK6" s="2"/>
+      <c r="AK6" s="2">
+        <v>0</v>
+      </c>
       <c r="AL6" s="2">
         <v>10</v>
       </c>
@@ -2842,11 +2846,15 @@
       <c r="AC12" s="2">
         <v>13</v>
       </c>
-      <c r="AD12" s="2"/>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
       <c r="AE12" s="2">
         <v>13</v>
       </c>
-      <c r="AF12" s="2"/>
+      <c r="AF12" s="2">
+        <v>0</v>
+      </c>
       <c r="AG12" s="2">
         <v>13</v>
       </c>
@@ -3059,7 +3067,9 @@
       <c r="AO13" s="2">
         <v>0</v>
       </c>
-      <c r="AP13" s="2"/>
+      <c r="AP13" s="2">
+        <v>0</v>
+      </c>
       <c r="AQ13" s="2">
         <v>31</v>
       </c>
@@ -3215,15 +3225,21 @@
       <c r="AF14" s="2">
         <v>10</v>
       </c>
-      <c r="AG14" s="2"/>
+      <c r="AG14" s="2">
+        <v>0</v>
+      </c>
       <c r="AH14" s="2">
         <v>10</v>
       </c>
-      <c r="AI14" s="2"/>
+      <c r="AI14" s="2">
+        <v>0</v>
+      </c>
       <c r="AJ14" s="2">
         <v>10</v>
       </c>
-      <c r="AK14" s="2"/>
+      <c r="AK14" s="2">
+        <v>0</v>
+      </c>
       <c r="AL14" s="2">
         <v>10</v>
       </c>

--- a/Excel/ThirdStage.xlsx
+++ b/Excel/ThirdStage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FB1E82-78AD-4E2E-8241-580889F41AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85E0082-1BA8-4408-906D-EF09ADB92224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <dimension ref="A1:BI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK7" sqref="AK7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3178,10 +3178,10 @@
         <v>0</v>
       </c>
       <c r="Q14" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R14" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S14" s="2">
         <v>13</v>

--- a/Excel/ThirdStage.xlsx
+++ b/Excel/ThirdStage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85E0082-1BA8-4408-906D-EF09ADB92224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA8BC7F-84BA-49B9-ABC2-075F84B4C0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -290,7 +290,209 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.59996337778862885"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -714,16 +916,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <dimension ref="A1:BI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AJ15" sqref="AJ15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="100" width="3.09765625" customWidth="1"/>
+    <col min="1" max="100" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:61" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8">
         <v>0</v>
       </c>
@@ -908,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -1093,7 +1295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1278,7 +1480,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1463,7 +1665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -1648,12 +1850,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2">
         <v>0</v>
@@ -1731,7 +1933,7 @@
         <v>31</v>
       </c>
       <c r="AB6" s="2">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AC6" s="2">
         <v>0</v>
@@ -1833,7 +2035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -2018,7 +2220,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -2203,7 +2405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>13</v>
       </c>
@@ -2388,7 +2590,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>31</v>
       </c>
@@ -2573,7 +2775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>31</v>
       </c>
@@ -2758,7 +2960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -2943,7 +3145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>0</v>
       </c>
@@ -3128,7 +3330,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3313,7 +3515,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>20</v>
       </c>
@@ -3498,7 +3700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:61" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:61" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>30</v>
       </c>
@@ -3686,32 +3888,38 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BI16">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>51</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/ThirdStage.xlsx
+++ b/Excel/ThirdStage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA8BC7F-84BA-49B9-ABC2-075F84B4C0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0E0BD6-B3F4-4846-86AC-BAE3ECFBD403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -105,66 +105,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -246,7 +186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -274,33 +214,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -393,93 +311,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -489,93 +321,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.59996337778862885"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -916,386 +662,386 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <dimension ref="A1:BI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AJ15" sqref="AJ15"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ8" sqref="AJ8:AR8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="100" width="3.125" customWidth="1"/>
+    <col min="1" max="100" width="3.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="8">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9">
-        <v>0</v>
-      </c>
-      <c r="D1" s="9">
-        <v>0</v>
-      </c>
-      <c r="E1" s="9">
-        <v>0</v>
-      </c>
-      <c r="F1" s="9">
-        <v>0</v>
-      </c>
-      <c r="G1" s="9">
-        <v>0</v>
-      </c>
-      <c r="H1" s="9">
-        <v>0</v>
-      </c>
-      <c r="I1" s="9">
-        <v>0</v>
-      </c>
-      <c r="J1" s="9">
-        <v>0</v>
-      </c>
-      <c r="K1" s="9">
-        <v>0</v>
-      </c>
-      <c r="L1" s="9">
-        <v>0</v>
-      </c>
-      <c r="M1" s="9">
-        <v>0</v>
-      </c>
-      <c r="N1" s="9">
-        <v>0</v>
-      </c>
-      <c r="O1" s="9">
-        <v>0</v>
-      </c>
-      <c r="P1" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="9">
-        <v>0</v>
-      </c>
-      <c r="R1" s="9">
-        <v>0</v>
-      </c>
-      <c r="S1" s="9">
-        <v>0</v>
-      </c>
-      <c r="T1" s="9">
-        <v>0</v>
-      </c>
-      <c r="U1" s="9">
-        <v>0</v>
-      </c>
-      <c r="V1" s="9">
-        <v>0</v>
-      </c>
-      <c r="W1" s="9">
-        <v>0</v>
-      </c>
-      <c r="X1" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AL1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AV1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AW1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AX1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AY1" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ1" s="9">
-        <v>0</v>
-      </c>
-      <c r="BA1" s="9">
-        <v>0</v>
-      </c>
-      <c r="BB1" s="9">
-        <v>0</v>
-      </c>
-      <c r="BC1" s="9">
-        <v>0</v>
-      </c>
-      <c r="BD1" s="9">
-        <v>0</v>
-      </c>
-      <c r="BE1" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF1" s="9">
-        <v>0</v>
-      </c>
-      <c r="BG1" s="9">
-        <v>0</v>
-      </c>
-      <c r="BH1" s="9">
-        <v>0</v>
-      </c>
-      <c r="BI1" s="10">
+    <row r="1" spans="1:61" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="4">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5">
+        <v>0</v>
+      </c>
+      <c r="D1" s="5">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5">
+        <v>0</v>
+      </c>
+      <c r="G1" s="5">
+        <v>0</v>
+      </c>
+      <c r="H1" s="5">
+        <v>0</v>
+      </c>
+      <c r="I1" s="5">
+        <v>0</v>
+      </c>
+      <c r="J1" s="5">
+        <v>0</v>
+      </c>
+      <c r="K1" s="5">
+        <v>0</v>
+      </c>
+      <c r="L1" s="5">
+        <v>0</v>
+      </c>
+      <c r="M1" s="5">
+        <v>0</v>
+      </c>
+      <c r="N1" s="5">
+        <v>0</v>
+      </c>
+      <c r="O1" s="5">
+        <v>0</v>
+      </c>
+      <c r="P1" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>0</v>
+      </c>
+      <c r="R1" s="5">
+        <v>0</v>
+      </c>
+      <c r="S1" s="5">
+        <v>0</v>
+      </c>
+      <c r="T1" s="5">
+        <v>0</v>
+      </c>
+      <c r="U1" s="5">
+        <v>0</v>
+      </c>
+      <c r="V1" s="5">
+        <v>0</v>
+      </c>
+      <c r="W1" s="5">
+        <v>0</v>
+      </c>
+      <c r="X1" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ1" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA1" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB1" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC1" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD1" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE1" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF1" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG1" s="5">
+        <v>0</v>
+      </c>
+      <c r="BH1" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI1" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.4">
-      <c r="A2" s="11">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12">
-        <v>31</v>
-      </c>
-      <c r="E2" s="12">
-        <v>31</v>
-      </c>
-      <c r="F2" s="12">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>31</v>
+      </c>
+      <c r="E2" s="8">
+        <v>31</v>
+      </c>
+      <c r="F2" s="8">
         <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>20</v>
       </c>
-      <c r="H2" s="12">
-        <v>30</v>
-      </c>
-      <c r="I2" s="12">
-        <v>30</v>
-      </c>
-      <c r="J2" s="12">
-        <v>30</v>
-      </c>
-      <c r="K2" s="12">
-        <v>30</v>
-      </c>
-      <c r="L2" s="12">
-        <v>30</v>
-      </c>
-      <c r="M2" s="12">
-        <v>30</v>
-      </c>
-      <c r="N2" s="12">
-        <v>30</v>
-      </c>
-      <c r="O2" s="12">
-        <v>30</v>
-      </c>
-      <c r="P2" s="12">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="12">
-        <v>30</v>
-      </c>
-      <c r="R2" s="12">
-        <v>30</v>
-      </c>
-      <c r="S2" s="12">
-        <v>30</v>
-      </c>
-      <c r="T2" s="12">
-        <v>30</v>
-      </c>
-      <c r="U2" s="12">
-        <v>30</v>
-      </c>
-      <c r="V2" s="12">
-        <v>30</v>
-      </c>
-      <c r="W2" s="12">
-        <v>30</v>
-      </c>
-      <c r="X2" s="12">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="12">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="12">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="12">
-        <v>20</v>
-      </c>
-      <c r="AB2" s="12">
-        <v>20</v>
-      </c>
-      <c r="AC2" s="12">
-        <v>20</v>
-      </c>
-      <c r="AD2" s="12">
-        <v>20</v>
-      </c>
-      <c r="AE2" s="12">
-        <v>20</v>
-      </c>
-      <c r="AF2" s="12">
-        <v>20</v>
-      </c>
-      <c r="AG2" s="12">
-        <v>20</v>
-      </c>
-      <c r="AH2" s="12">
+      <c r="H2" s="2">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2">
+        <v>31</v>
+      </c>
+      <c r="N2" s="2">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
+        <v>31</v>
+      </c>
+      <c r="P2" s="2">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>31</v>
+      </c>
+      <c r="R2" s="2">
+        <v>31</v>
+      </c>
+      <c r="S2" s="2">
+        <v>31</v>
+      </c>
+      <c r="T2" s="2">
+        <v>31</v>
+      </c>
+      <c r="U2" s="2">
+        <v>31</v>
+      </c>
+      <c r="V2" s="2">
+        <v>31</v>
+      </c>
+      <c r="W2" s="2">
+        <v>31</v>
+      </c>
+      <c r="X2" s="2">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>20</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>20</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>20</v>
+      </c>
+      <c r="AF2" s="8">
+        <v>20</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>20</v>
+      </c>
+      <c r="AH2" s="8">
         <v>20</v>
       </c>
       <c r="AI2" s="2">
         <v>20</v>
       </c>
       <c r="AJ2" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AK2" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AL2" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AM2" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AN2" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AO2" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AP2" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AQ2" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AR2" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AS2" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AT2" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AU2" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AV2" s="2">
-        <v>30</v>
-      </c>
-      <c r="AW2" s="12">
-        <v>30</v>
-      </c>
-      <c r="AX2" s="12">
-        <v>30</v>
-      </c>
-      <c r="AY2" s="12">
-        <v>30</v>
-      </c>
-      <c r="AZ2" s="12">
-        <v>30</v>
-      </c>
-      <c r="BA2" s="12">
-        <v>30</v>
-      </c>
-      <c r="BB2" s="12">
-        <v>30</v>
-      </c>
-      <c r="BC2" s="12">
-        <v>30</v>
-      </c>
-      <c r="BD2" s="12">
-        <v>30</v>
-      </c>
-      <c r="BE2" s="12">
-        <v>30</v>
-      </c>
-      <c r="BF2" s="12">
-        <v>30</v>
-      </c>
-      <c r="BG2" s="12">
-        <v>30</v>
-      </c>
-      <c r="BH2" s="12">
-        <v>30</v>
-      </c>
-      <c r="BI2" s="12">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>31</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>31</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>31</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>31</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>31</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>31</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>31</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>31</v>
+      </c>
+      <c r="BE2" s="2">
+        <v>31</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>31</v>
+      </c>
+      <c r="BG2" s="2">
+        <v>31</v>
+      </c>
+      <c r="BH2" s="2">
+        <v>31</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1315,61 +1061,61 @@
         <v>31</v>
       </c>
       <c r="G3" s="2">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2">
         <v>20</v>
       </c>
       <c r="I3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z3" s="2">
         <v>20</v>
@@ -1432,55 +1178,55 @@
         <v>20</v>
       </c>
       <c r="AT3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AU3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AV3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AW3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AX3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AY3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AZ3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BA3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BB3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BC3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BD3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BE3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BF3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BG3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BH3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BI3" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1506,55 +1252,55 @@
         <v>20</v>
       </c>
       <c r="I4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z4" s="2">
         <v>20</v>
@@ -1620,52 +1366,52 @@
         <v>20</v>
       </c>
       <c r="AU4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AV4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AW4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AX4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AY4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AZ4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BA4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BB4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BC4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BD4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BE4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BF4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BG4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BH4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BI4" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>0</v>
       </c>
@@ -1691,55 +1437,55 @@
         <v>20</v>
       </c>
       <c r="I5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z5" s="2">
         <v>20</v>
@@ -1808,49 +1554,49 @@
         <v>20</v>
       </c>
       <c r="AV5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AW5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AX5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AY5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AZ5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BA5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BB5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BC5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BD5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BE5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BF5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BG5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BH5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BI5" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -1876,55 +1622,55 @@
         <v>20</v>
       </c>
       <c r="I6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z6" s="2">
         <v>20</v>
@@ -1996,46 +1742,46 @@
         <v>20</v>
       </c>
       <c r="AW6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AX6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AY6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AZ6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BA6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BB6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BC6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BD6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BE6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BF6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BG6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BH6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BI6" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -2061,25 +1807,25 @@
         <v>20</v>
       </c>
       <c r="I7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P7" s="2">
         <v>20</v>
@@ -2094,22 +1840,22 @@
         <v>20</v>
       </c>
       <c r="T7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z7" s="2">
         <v>20</v>
@@ -2181,46 +1927,46 @@
         <v>20</v>
       </c>
       <c r="AW7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AX7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AY7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AZ7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BA7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BB7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BC7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BD7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BE7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BF7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BG7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BH7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BI7" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -2246,22 +1992,22 @@
         <v>20</v>
       </c>
       <c r="I8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O8" s="2">
         <v>20</v>
@@ -2282,22 +2028,22 @@
         <v>20</v>
       </c>
       <c r="U8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="V8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA8" s="2">
         <v>20</v>
@@ -2327,31 +2073,31 @@
         <v>20</v>
       </c>
       <c r="AJ8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AK8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AL8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AM8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AN8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AO8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AP8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AQ8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AR8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AS8" s="2">
         <v>20</v>
@@ -2366,46 +2112,46 @@
         <v>20</v>
       </c>
       <c r="AW8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AX8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AY8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AZ8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BA8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BB8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BC8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BD8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BE8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BF8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BG8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BH8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BI8" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>13</v>
       </c>
@@ -2428,22 +2174,22 @@
         <v>20</v>
       </c>
       <c r="H9" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N9" s="2">
         <v>20</v>
@@ -2470,22 +2216,22 @@
         <v>20</v>
       </c>
       <c r="V9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB9" s="2">
         <v>20</v>
@@ -2509,34 +2255,34 @@
         <v>20</v>
       </c>
       <c r="AI9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AJ9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AK9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AL9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AM9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AN9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AO9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AP9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AQ9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AR9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AS9" s="2">
         <v>20</v>
@@ -2551,46 +2297,46 @@
         <v>20</v>
       </c>
       <c r="AW9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AX9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AY9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AZ9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BA9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BB9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BC9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BD9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BE9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BF9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BG9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BH9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BI9" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>31</v>
       </c>
@@ -2610,22 +2356,22 @@
         <v>20</v>
       </c>
       <c r="G10" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M10" s="2">
         <v>20</v>
@@ -2655,25 +2401,25 @@
         <v>20</v>
       </c>
       <c r="V10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AC10" s="2">
         <v>20</v>
@@ -2691,37 +2437,37 @@
         <v>20</v>
       </c>
       <c r="AH10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AI10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AJ10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AK10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AL10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AM10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AN10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AO10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AP10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AQ10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AR10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AS10" s="2">
         <v>20</v>
@@ -2736,46 +2482,46 @@
         <v>20</v>
       </c>
       <c r="AW10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AX10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AY10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AZ10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BA10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BB10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BC10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BD10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BE10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BF10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BG10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BH10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BI10" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>31</v>
       </c>
@@ -2792,25 +2538,25 @@
         <v>20</v>
       </c>
       <c r="F11" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M11" s="2">
         <v>20</v>
@@ -2921,46 +2667,46 @@
         <v>20</v>
       </c>
       <c r="AW11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AX11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AY11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AZ11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BA11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BB11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BC11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BD11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BE11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BF11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BG11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BH11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BI11" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -2983,22 +2729,22 @@
         <v>20</v>
       </c>
       <c r="H12" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I12" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J12" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L12" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M12" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N12" s="2">
         <v>20</v>
@@ -3106,46 +2852,46 @@
         <v>20</v>
       </c>
       <c r="AW12" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AX12" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AY12" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AZ12" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BA12" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BB12" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BC12" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BD12" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BE12" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BF12" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BG12" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BH12" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BI12" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>0</v>
       </c>
@@ -3288,49 +3034,49 @@
         <v>20</v>
       </c>
       <c r="AV13" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AW13" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AX13" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AY13" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AZ13" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BA13" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BB13" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BC13" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BD13" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BE13" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BF13" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BG13" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BH13" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BI13" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -3455,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="AP14" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AQ14" s="2">
         <v>31</v>
@@ -3473,49 +3219,49 @@
         <v>20</v>
       </c>
       <c r="AV14" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AW14" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AX14" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AY14" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AZ14" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BA14" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BB14" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BC14" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BD14" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BE14" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BF14" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BG14" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BH14" s="2">
-        <v>30</v>
-      </c>
-      <c r="BI14" s="4">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="BI14" s="2">
+        <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>20</v>
       </c>
@@ -3574,79 +3320,79 @@
         <v>10</v>
       </c>
       <c r="T15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="U15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="V15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="W15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="X15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="Y15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="Z15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AA15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AB15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AC15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AD15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AE15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AF15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AG15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AH15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AI15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AJ15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AK15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AL15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AM15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AN15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AO15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AP15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AQ15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AR15" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AS15" s="2">
         <v>20</v>
@@ -3655,63 +3401,63 @@
         <v>20</v>
       </c>
       <c r="AU15" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AV15" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AW15" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AX15" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AY15" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AZ15" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BA15" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BB15" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BC15" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BD15" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BE15" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BF15" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BG15" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BH15" s="2">
-        <v>30</v>
-      </c>
-      <c r="BI15" s="4">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="BI15" s="2">
+        <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:61" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="5">
-        <v>30</v>
-      </c>
-      <c r="B16" s="6">
-        <v>30</v>
-      </c>
-      <c r="C16" s="6">
-        <v>30</v>
-      </c>
-      <c r="D16" s="6">
-        <v>30</v>
+    <row r="16" spans="1:61" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2">
+        <v>20</v>
       </c>
       <c r="E16" s="2">
         <v>20</v>
@@ -3758,168 +3504,168 @@
       <c r="S16" s="2">
         <v>20</v>
       </c>
-      <c r="T16" s="6">
-        <v>30</v>
-      </c>
-      <c r="U16" s="6">
-        <v>30</v>
-      </c>
-      <c r="V16" s="6">
-        <v>30</v>
-      </c>
-      <c r="W16" s="6">
-        <v>30</v>
-      </c>
-      <c r="X16" s="6">
-        <v>30</v>
-      </c>
-      <c r="Y16" s="6">
-        <v>30</v>
-      </c>
-      <c r="Z16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AA16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AB16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AC16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AD16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AE16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AF16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AG16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AH16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AI16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AJ16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AK16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AL16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AM16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AN16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AO16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AP16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AQ16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AR16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AS16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AT16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AU16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AV16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AW16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AX16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AY16" s="6">
-        <v>30</v>
-      </c>
-      <c r="AZ16" s="6">
-        <v>30</v>
-      </c>
-      <c r="BA16" s="6">
-        <v>30</v>
-      </c>
-      <c r="BB16" s="6">
-        <v>30</v>
-      </c>
-      <c r="BC16" s="6">
-        <v>30</v>
-      </c>
-      <c r="BD16" s="6">
-        <v>30</v>
-      </c>
-      <c r="BE16" s="6">
-        <v>30</v>
-      </c>
-      <c r="BF16" s="6">
-        <v>30</v>
-      </c>
-      <c r="BG16" s="6">
-        <v>30</v>
-      </c>
-      <c r="BH16" s="6">
-        <v>30</v>
-      </c>
-      <c r="BI16" s="7">
-        <v>30</v>
+      <c r="T16" s="2">
+        <v>20</v>
+      </c>
+      <c r="U16" s="2">
+        <v>20</v>
+      </c>
+      <c r="V16" s="2">
+        <v>20</v>
+      </c>
+      <c r="W16" s="2">
+        <v>20</v>
+      </c>
+      <c r="X16" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>20</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>20</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>20</v>
+      </c>
+      <c r="AQ16" s="2">
+        <v>20</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>20</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>20</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>31</v>
+      </c>
+      <c r="AU16" s="2">
+        <v>31</v>
+      </c>
+      <c r="AV16" s="2">
+        <v>31</v>
+      </c>
+      <c r="AW16" s="2">
+        <v>31</v>
+      </c>
+      <c r="AX16" s="2">
+        <v>31</v>
+      </c>
+      <c r="AY16" s="2">
+        <v>31</v>
+      </c>
+      <c r="AZ16" s="2">
+        <v>31</v>
+      </c>
+      <c r="BA16" s="2">
+        <v>31</v>
+      </c>
+      <c r="BB16" s="2">
+        <v>31</v>
+      </c>
+      <c r="BC16" s="2">
+        <v>31</v>
+      </c>
+      <c r="BD16" s="2">
+        <v>31</v>
+      </c>
+      <c r="BE16" s="2">
+        <v>31</v>
+      </c>
+      <c r="BF16" s="2">
+        <v>31</v>
+      </c>
+      <c r="BG16" s="2">
+        <v>31</v>
+      </c>
+      <c r="BH16" s="2">
+        <v>31</v>
+      </c>
+      <c r="BI16" s="2">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BI16">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
-      <formula>51</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/ThirdStage.xlsx
+++ b/Excel/ThirdStage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyake\ドキュメント\ゲーム制作用ファイル\ゲーム製作 No.4\PoorRailroadCompany\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F33A1A6-11A4-445C-AADE-E371B6A8E741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEA92D2-0704-4595-9D73-0DBA1E18A67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6372" yWindow="12" windowWidth="11544" windowHeight="12240" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,17 +96,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="451">
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -160,46 +150,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -306,6 +271,4069 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -751,10 +4779,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BI16"/>
+  <dimension ref="A1:BU16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -762,7 +4790,7 @@
     <col min="1" max="100" width="3.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:73" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -947,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1131,8 +5159,44 @@
       <c r="BI2">
         <v>20</v>
       </c>
+      <c r="BJ2">
+        <v>20</v>
+      </c>
+      <c r="BK2">
+        <v>20</v>
+      </c>
+      <c r="BL2">
+        <v>20</v>
+      </c>
+      <c r="BM2">
+        <v>20</v>
+      </c>
+      <c r="BN2">
+        <v>20</v>
+      </c>
+      <c r="BO2">
+        <v>20</v>
+      </c>
+      <c r="BP2">
+        <v>20</v>
+      </c>
+      <c r="BQ2">
+        <v>20</v>
+      </c>
+      <c r="BR2">
+        <v>20</v>
+      </c>
+      <c r="BS2">
+        <v>20</v>
+      </c>
+      <c r="BT2">
+        <v>20</v>
+      </c>
+      <c r="BU2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1251,40 +5315,40 @@
         <v>31</v>
       </c>
       <c r="AN3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AO3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AP3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AQ3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AR3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AS3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AT3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AU3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AV3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AW3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AX3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AY3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AZ3">
         <v>20</v>
@@ -1316,8 +5380,44 @@
       <c r="BI3">
         <v>20</v>
       </c>
+      <c r="BJ3">
+        <v>20</v>
+      </c>
+      <c r="BK3">
+        <v>20</v>
+      </c>
+      <c r="BL3">
+        <v>20</v>
+      </c>
+      <c r="BM3">
+        <v>20</v>
+      </c>
+      <c r="BN3">
+        <v>20</v>
+      </c>
+      <c r="BO3">
+        <v>20</v>
+      </c>
+      <c r="BP3">
+        <v>20</v>
+      </c>
+      <c r="BQ3">
+        <v>20</v>
+      </c>
+      <c r="BR3">
+        <v>20</v>
+      </c>
+      <c r="BS3">
+        <v>20</v>
+      </c>
+      <c r="BT3">
+        <v>20</v>
+      </c>
+      <c r="BU3">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1439,40 +5539,40 @@
         <v>31</v>
       </c>
       <c r="AO4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AP4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AQ4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AR4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AS4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AT4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AU4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AV4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AW4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AX4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AY4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AZ4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BA4">
         <v>20</v>
@@ -1501,8 +5601,44 @@
       <c r="BI4">
         <v>20</v>
       </c>
+      <c r="BJ4">
+        <v>20</v>
+      </c>
+      <c r="BK4">
+        <v>20</v>
+      </c>
+      <c r="BL4">
+        <v>20</v>
+      </c>
+      <c r="BM4">
+        <v>20</v>
+      </c>
+      <c r="BN4">
+        <v>20</v>
+      </c>
+      <c r="BO4">
+        <v>20</v>
+      </c>
+      <c r="BP4">
+        <v>20</v>
+      </c>
+      <c r="BQ4">
+        <v>20</v>
+      </c>
+      <c r="BR4">
+        <v>20</v>
+      </c>
+      <c r="BS4">
+        <v>20</v>
+      </c>
+      <c r="BT4">
+        <v>20</v>
+      </c>
+      <c r="BU4">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>10</v>
       </c>
@@ -1603,61 +5739,61 @@
         <v>31</v>
       </c>
       <c r="AH5">
+        <v>31</v>
+      </c>
+      <c r="AI5">
+        <v>31</v>
+      </c>
+      <c r="AJ5">
+        <v>31</v>
+      </c>
+      <c r="AK5">
+        <v>13</v>
+      </c>
+      <c r="AL5">
+        <v>31</v>
+      </c>
+      <c r="AM5">
+        <v>31</v>
+      </c>
+      <c r="AN5">
         <v>25</v>
       </c>
-      <c r="AI5">
-        <v>31</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
+      <c r="AO5">
+        <v>31</v>
+      </c>
+      <c r="AP5">
+        <v>31</v>
+      </c>
+      <c r="AQ5">
+        <v>31</v>
+      </c>
+      <c r="AR5">
+        <v>31</v>
+      </c>
+      <c r="AS5">
+        <v>31</v>
+      </c>
+      <c r="AT5">
+        <v>31</v>
+      </c>
+      <c r="AU5">
+        <v>31</v>
+      </c>
+      <c r="AV5">
         <v>8</v>
       </c>
-      <c r="AL5">
+      <c r="AW5">
         <v>8</v>
       </c>
-      <c r="AM5">
+      <c r="AX5">
         <v>8</v>
       </c>
-      <c r="AN5">
-        <v>31</v>
-      </c>
-      <c r="AO5">
-        <v>20</v>
-      </c>
-      <c r="AP5">
-        <v>20</v>
-      </c>
-      <c r="AQ5">
-        <v>20</v>
-      </c>
-      <c r="AR5">
-        <v>20</v>
-      </c>
-      <c r="AS5">
-        <v>20</v>
-      </c>
-      <c r="AT5">
-        <v>20</v>
-      </c>
-      <c r="AU5">
-        <v>20</v>
-      </c>
-      <c r="AV5">
-        <v>20</v>
-      </c>
-      <c r="AW5">
-        <v>20</v>
-      </c>
-      <c r="AX5">
-        <v>20</v>
-      </c>
       <c r="AY5">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AZ5">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BA5">
         <v>20</v>
@@ -1686,8 +5822,44 @@
       <c r="BI5">
         <v>20</v>
       </c>
+      <c r="BJ5">
+        <v>20</v>
+      </c>
+      <c r="BK5">
+        <v>20</v>
+      </c>
+      <c r="BL5">
+        <v>20</v>
+      </c>
+      <c r="BM5">
+        <v>20</v>
+      </c>
+      <c r="BN5">
+        <v>20</v>
+      </c>
+      <c r="BO5">
+        <v>20</v>
+      </c>
+      <c r="BP5">
+        <v>20</v>
+      </c>
+      <c r="BQ5">
+        <v>20</v>
+      </c>
+      <c r="BR5">
+        <v>20</v>
+      </c>
+      <c r="BS5">
+        <v>20</v>
+      </c>
+      <c r="BT5">
+        <v>20</v>
+      </c>
+      <c r="BU5">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>31</v>
       </c>
@@ -1794,55 +5966,55 @@
         <v>31</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>13</v>
+      </c>
+      <c r="AM6">
+        <v>31</v>
+      </c>
+      <c r="AN6">
+        <v>31</v>
+      </c>
+      <c r="AO6">
+        <v>31</v>
+      </c>
+      <c r="AP6">
+        <v>13</v>
+      </c>
+      <c r="AQ6">
+        <v>13</v>
+      </c>
+      <c r="AR6">
+        <v>13</v>
+      </c>
+      <c r="AS6">
+        <v>13</v>
+      </c>
+      <c r="AT6">
+        <v>13</v>
+      </c>
+      <c r="AU6">
+        <v>13</v>
+      </c>
+      <c r="AV6">
         <v>8</v>
       </c>
-      <c r="AL6">
+      <c r="AW6">
         <v>8</v>
       </c>
-      <c r="AM6">
+      <c r="AX6">
         <v>8</v>
       </c>
-      <c r="AN6">
-        <v>31</v>
-      </c>
-      <c r="AO6">
-        <v>31</v>
-      </c>
-      <c r="AP6">
-        <v>20</v>
-      </c>
-      <c r="AQ6">
-        <v>20</v>
-      </c>
-      <c r="AR6">
-        <v>20</v>
-      </c>
-      <c r="AS6">
-        <v>20</v>
-      </c>
-      <c r="AT6">
-        <v>20</v>
-      </c>
-      <c r="AU6">
-        <v>20</v>
-      </c>
-      <c r="AV6">
-        <v>20</v>
-      </c>
-      <c r="AW6">
-        <v>20</v>
-      </c>
-      <c r="AX6">
-        <v>20</v>
-      </c>
       <c r="AY6">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AZ6">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BA6">
         <v>20</v>
@@ -1871,8 +6043,44 @@
       <c r="BI6">
         <v>20</v>
       </c>
+      <c r="BJ6">
+        <v>20</v>
+      </c>
+      <c r="BK6">
+        <v>20</v>
+      </c>
+      <c r="BL6">
+        <v>20</v>
+      </c>
+      <c r="BM6">
+        <v>20</v>
+      </c>
+      <c r="BN6">
+        <v>20</v>
+      </c>
+      <c r="BO6">
+        <v>20</v>
+      </c>
+      <c r="BP6">
+        <v>20</v>
+      </c>
+      <c r="BQ6">
+        <v>20</v>
+      </c>
+      <c r="BR6">
+        <v>20</v>
+      </c>
+      <c r="BS6">
+        <v>20</v>
+      </c>
+      <c r="BT6">
+        <v>20</v>
+      </c>
+      <c r="BU6">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>13</v>
       </c>
@@ -1967,67 +6175,67 @@
         <v>13</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ7">
         <v>0</v>
       </c>
       <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>13</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>13</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>10</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
         <v>8</v>
       </c>
-      <c r="AL7">
+      <c r="AW7">
         <v>8</v>
       </c>
-      <c r="AM7">
+      <c r="AX7">
         <v>8</v>
       </c>
-      <c r="AN7">
-        <v>13</v>
-      </c>
-      <c r="AO7">
-        <v>31</v>
-      </c>
-      <c r="AP7">
-        <v>20</v>
-      </c>
-      <c r="AQ7">
-        <v>20</v>
-      </c>
-      <c r="AR7">
-        <v>20</v>
-      </c>
-      <c r="AS7">
-        <v>20</v>
-      </c>
-      <c r="AT7">
-        <v>20</v>
-      </c>
-      <c r="AU7">
-        <v>20</v>
-      </c>
-      <c r="AV7">
-        <v>20</v>
-      </c>
-      <c r="AW7">
-        <v>20</v>
-      </c>
-      <c r="AX7">
-        <v>20</v>
-      </c>
       <c r="AY7">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="AZ7">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BA7">
         <v>20</v>
@@ -2056,8 +6264,44 @@
       <c r="BI7">
         <v>20</v>
       </c>
+      <c r="BJ7">
+        <v>20</v>
+      </c>
+      <c r="BK7">
+        <v>20</v>
+      </c>
+      <c r="BL7">
+        <v>20</v>
+      </c>
+      <c r="BM7">
+        <v>20</v>
+      </c>
+      <c r="BN7">
+        <v>20</v>
+      </c>
+      <c r="BO7">
+        <v>20</v>
+      </c>
+      <c r="BP7">
+        <v>20</v>
+      </c>
+      <c r="BQ7">
+        <v>20</v>
+      </c>
+      <c r="BR7">
+        <v>20</v>
+      </c>
+      <c r="BS7">
+        <v>20</v>
+      </c>
+      <c r="BT7">
+        <v>20</v>
+      </c>
+      <c r="BU7">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2170,40 +6414,40 @@
         <v>0</v>
       </c>
       <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>10</v>
+      </c>
+      <c r="AQ8">
+        <v>10</v>
+      </c>
+      <c r="AR8">
+        <v>10</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
         <v>4</v>
-      </c>
-      <c r="AM8">
-        <v>6</v>
-      </c>
-      <c r="AN8">
-        <v>6</v>
-      </c>
-      <c r="AO8">
-        <v>6</v>
-      </c>
-      <c r="AP8">
-        <v>6</v>
-      </c>
-      <c r="AQ8">
-        <v>6</v>
-      </c>
-      <c r="AR8">
-        <v>6</v>
-      </c>
-      <c r="AS8">
-        <v>6</v>
-      </c>
-      <c r="AT8">
-        <v>6</v>
-      </c>
-      <c r="AU8">
-        <v>6</v>
-      </c>
-      <c r="AV8">
-        <v>6</v>
-      </c>
-      <c r="AW8">
-        <v>6</v>
       </c>
       <c r="AX8">
         <v>6</v>
@@ -2241,8 +6485,44 @@
       <c r="BI8">
         <v>6</v>
       </c>
+      <c r="BJ8">
+        <v>6</v>
+      </c>
+      <c r="BK8">
+        <v>6</v>
+      </c>
+      <c r="BL8">
+        <v>6</v>
+      </c>
+      <c r="BM8">
+        <v>6</v>
+      </c>
+      <c r="BN8">
+        <v>6</v>
+      </c>
+      <c r="BO8">
+        <v>6</v>
+      </c>
+      <c r="BP8">
+        <v>6</v>
+      </c>
+      <c r="BQ8">
+        <v>6</v>
+      </c>
+      <c r="BR8">
+        <v>6</v>
+      </c>
+      <c r="BS8">
+        <v>6</v>
+      </c>
+      <c r="BT8">
+        <v>6</v>
+      </c>
+      <c r="BU8">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2361,43 +6641,43 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AR9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AU9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AV9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AW9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AX9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AY9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AZ9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BA9">
         <v>20</v>
@@ -2426,8 +6706,44 @@
       <c r="BI9">
         <v>20</v>
       </c>
+      <c r="BJ9">
+        <v>20</v>
+      </c>
+      <c r="BK9">
+        <v>20</v>
+      </c>
+      <c r="BL9">
+        <v>20</v>
+      </c>
+      <c r="BM9">
+        <v>20</v>
+      </c>
+      <c r="BN9">
+        <v>20</v>
+      </c>
+      <c r="BO9">
+        <v>20</v>
+      </c>
+      <c r="BP9">
+        <v>20</v>
+      </c>
+      <c r="BQ9">
+        <v>20</v>
+      </c>
+      <c r="BR9">
+        <v>20</v>
+      </c>
+      <c r="BS9">
+        <v>20</v>
+      </c>
+      <c r="BT9">
+        <v>20</v>
+      </c>
+      <c r="BU9">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2549,40 +6865,40 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AQ10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AR10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AU10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AV10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AW10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AX10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AY10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AZ10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BA10">
         <v>20</v>
@@ -2611,8 +6927,44 @@
       <c r="BI10">
         <v>20</v>
       </c>
+      <c r="BJ10">
+        <v>20</v>
+      </c>
+      <c r="BK10">
+        <v>20</v>
+      </c>
+      <c r="BL10">
+        <v>20</v>
+      </c>
+      <c r="BM10">
+        <v>20</v>
+      </c>
+      <c r="BN10">
+        <v>20</v>
+      </c>
+      <c r="BO10">
+        <v>20</v>
+      </c>
+      <c r="BP10">
+        <v>20</v>
+      </c>
+      <c r="BQ10">
+        <v>20</v>
+      </c>
+      <c r="BR10">
+        <v>20</v>
+      </c>
+      <c r="BS10">
+        <v>20</v>
+      </c>
+      <c r="BT10">
+        <v>20</v>
+      </c>
+      <c r="BU10">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0</v>
       </c>
@@ -2737,37 +7089,37 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AR11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AU11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AV11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AW11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AX11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AY11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AZ11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BA11">
         <v>20</v>
@@ -2796,8 +7148,44 @@
       <c r="BI11">
         <v>20</v>
       </c>
+      <c r="BJ11">
+        <v>20</v>
+      </c>
+      <c r="BK11">
+        <v>20</v>
+      </c>
+      <c r="BL11">
+        <v>20</v>
+      </c>
+      <c r="BM11">
+        <v>20</v>
+      </c>
+      <c r="BN11">
+        <v>20</v>
+      </c>
+      <c r="BO11">
+        <v>20</v>
+      </c>
+      <c r="BP11">
+        <v>20</v>
+      </c>
+      <c r="BQ11">
+        <v>20</v>
+      </c>
+      <c r="BR11">
+        <v>20</v>
+      </c>
+      <c r="BS11">
+        <v>20</v>
+      </c>
+      <c r="BT11">
+        <v>20</v>
+      </c>
+      <c r="BU11">
+        <v>20</v>
+      </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2913,46 +7301,46 @@
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO12">
         <v>10</v>
       </c>
       <c r="AP12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AQ12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AR12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AU12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AV12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AW12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AX12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AY12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AZ12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BA12">
         <v>20</v>
@@ -2981,8 +7369,44 @@
       <c r="BI12">
         <v>20</v>
       </c>
+      <c r="BJ12">
+        <v>20</v>
+      </c>
+      <c r="BK12">
+        <v>20</v>
+      </c>
+      <c r="BL12">
+        <v>20</v>
+      </c>
+      <c r="BM12">
+        <v>20</v>
+      </c>
+      <c r="BN12">
+        <v>20</v>
+      </c>
+      <c r="BO12">
+        <v>20</v>
+      </c>
+      <c r="BP12">
+        <v>20</v>
+      </c>
+      <c r="BQ12">
+        <v>20</v>
+      </c>
+      <c r="BR12">
+        <v>20</v>
+      </c>
+      <c r="BS12">
+        <v>20</v>
+      </c>
+      <c r="BT12">
+        <v>20</v>
+      </c>
+      <c r="BU12">
+        <v>20</v>
+      </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3098,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN13">
         <v>10</v>
@@ -3107,37 +7531,37 @@
         <v>10</v>
       </c>
       <c r="AP13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AQ13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AR13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AU13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AV13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AW13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AX13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AY13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AZ13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="BA13">
         <v>20</v>
@@ -3166,8 +7590,44 @@
       <c r="BI13">
         <v>20</v>
       </c>
+      <c r="BJ13">
+        <v>20</v>
+      </c>
+      <c r="BK13">
+        <v>20</v>
+      </c>
+      <c r="BL13">
+        <v>20</v>
+      </c>
+      <c r="BM13">
+        <v>20</v>
+      </c>
+      <c r="BN13">
+        <v>20</v>
+      </c>
+      <c r="BO13">
+        <v>20</v>
+      </c>
+      <c r="BP13">
+        <v>20</v>
+      </c>
+      <c r="BQ13">
+        <v>20</v>
+      </c>
+      <c r="BR13">
+        <v>20</v>
+      </c>
+      <c r="BS13">
+        <v>20</v>
+      </c>
+      <c r="BT13">
+        <v>20</v>
+      </c>
+      <c r="BU13">
+        <v>20</v>
+      </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3292,37 +7752,37 @@
         <v>10</v>
       </c>
       <c r="AP14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AQ14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AR14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AU14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AV14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AW14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AX14">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AY14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AZ14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="BA14">
         <v>20</v>
@@ -3351,8 +7811,44 @@
       <c r="BI14">
         <v>20</v>
       </c>
+      <c r="BJ14">
+        <v>20</v>
+      </c>
+      <c r="BK14">
+        <v>20</v>
+      </c>
+      <c r="BL14">
+        <v>20</v>
+      </c>
+      <c r="BM14">
+        <v>20</v>
+      </c>
+      <c r="BN14">
+        <v>20</v>
+      </c>
+      <c r="BO14">
+        <v>20</v>
+      </c>
+      <c r="BP14">
+        <v>20</v>
+      </c>
+      <c r="BQ14">
+        <v>20</v>
+      </c>
+      <c r="BR14">
+        <v>20</v>
+      </c>
+      <c r="BS14">
+        <v>20</v>
+      </c>
+      <c r="BT14">
+        <v>20</v>
+      </c>
+      <c r="BU14">
+        <v>20</v>
+      </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>31</v>
       </c>
@@ -3456,59 +7952,59 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AK15">
         <v>0</v>
       </c>
       <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>13</v>
+      </c>
+      <c r="AR15">
+        <v>13</v>
+      </c>
+      <c r="AS15">
+        <v>13</v>
+      </c>
+      <c r="AT15">
+        <v>13</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
         <v>10</v>
       </c>
-      <c r="AM15">
+      <c r="AY15">
         <v>10</v>
       </c>
-      <c r="AN15">
+      <c r="AZ15">
         <v>10</v>
       </c>
-      <c r="AO15">
-        <v>10</v>
-      </c>
-      <c r="AP15">
-        <v>20</v>
-      </c>
-      <c r="AQ15">
-        <v>20</v>
-      </c>
-      <c r="AR15">
-        <v>20</v>
-      </c>
-      <c r="AS15">
-        <v>20</v>
-      </c>
-      <c r="AT15">
-        <v>20</v>
-      </c>
-      <c r="AU15">
-        <v>20</v>
-      </c>
-      <c r="AV15">
-        <v>20</v>
-      </c>
-      <c r="AW15">
-        <v>20</v>
-      </c>
-      <c r="AX15">
-        <v>20</v>
-      </c>
-      <c r="AY15">
-        <v>20</v>
-      </c>
-      <c r="AZ15">
-        <v>20</v>
-      </c>
       <c r="BA15">
         <v>20</v>
       </c>
@@ -3536,8 +8032,44 @@
       <c r="BI15">
         <v>20</v>
       </c>
+      <c r="BJ15">
+        <v>20</v>
+      </c>
+      <c r="BK15">
+        <v>20</v>
+      </c>
+      <c r="BL15">
+        <v>20</v>
+      </c>
+      <c r="BM15">
+        <v>20</v>
+      </c>
+      <c r="BN15">
+        <v>20</v>
+      </c>
+      <c r="BO15">
+        <v>20</v>
+      </c>
+      <c r="BP15">
+        <v>20</v>
+      </c>
+      <c r="BQ15">
+        <v>20</v>
+      </c>
+      <c r="BR15">
+        <v>20</v>
+      </c>
+      <c r="BS15">
+        <v>20</v>
+      </c>
+      <c r="BT15">
+        <v>20</v>
+      </c>
+      <c r="BU15">
+        <v>20</v>
+      </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>31</v>
       </c>
@@ -3638,62 +8170,62 @@
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AK16">
+        <v>13</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>13</v>
+      </c>
+      <c r="AR16">
+        <v>31</v>
+      </c>
+      <c r="AS16">
+        <v>31</v>
+      </c>
+      <c r="AT16">
+        <v>13</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
         <v>10</v>
       </c>
-      <c r="AL16">
+      <c r="AX16">
         <v>10</v>
       </c>
-      <c r="AM16">
+      <c r="AY16">
         <v>10</v>
       </c>
-      <c r="AN16">
+      <c r="AZ16">
         <v>10</v>
       </c>
-      <c r="AO16">
-        <v>10</v>
-      </c>
-      <c r="AP16">
-        <v>20</v>
-      </c>
-      <c r="AQ16">
-        <v>20</v>
-      </c>
-      <c r="AR16">
-        <v>20</v>
-      </c>
-      <c r="AS16">
-        <v>20</v>
-      </c>
-      <c r="AT16">
-        <v>20</v>
-      </c>
-      <c r="AU16">
-        <v>20</v>
-      </c>
-      <c r="AV16">
-        <v>20</v>
-      </c>
-      <c r="AW16">
-        <v>20</v>
-      </c>
-      <c r="AX16">
-        <v>20</v>
-      </c>
-      <c r="AY16">
-        <v>20</v>
-      </c>
-      <c r="AZ16">
-        <v>20</v>
-      </c>
       <c r="BA16">
         <v>20</v>
       </c>
@@ -3719,114 +8251,1375 @@
         <v>20</v>
       </c>
       <c r="BI16">
+        <v>20</v>
+      </c>
+      <c r="BJ16">
+        <v>20</v>
+      </c>
+      <c r="BK16">
+        <v>20</v>
+      </c>
+      <c r="BL16">
+        <v>20</v>
+      </c>
+      <c r="BM16">
+        <v>20</v>
+      </c>
+      <c r="BN16">
+        <v>20</v>
+      </c>
+      <c r="BO16">
+        <v>20</v>
+      </c>
+      <c r="BP16">
+        <v>20</v>
+      </c>
+      <c r="BQ16">
+        <v>20</v>
+      </c>
+      <c r="BR16">
+        <v>20</v>
+      </c>
+      <c r="BS16">
+        <v>20</v>
+      </c>
+      <c r="BT16">
+        <v>20</v>
+      </c>
+      <c r="BU16">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:BI8">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:BI1 AG15:AH15 AM5:AM6 AL5 A5:AJ5 AG12:AL14 AV2:BU8 A2:AU4 AN5:AU5 AP16 AR16:AS16 AK15:AP15 AN6:AO6 A8:AJ8 A6:AI6 A7:AG7 AJ7 AM12:AO13 AU15:BN16 AN14:AW14 AX11:BN14 AG9:BN10 AP7:AU7 AN13:AS13 AU11:AW13 AT12:AT13">
+    <cfRule type="cellIs" dxfId="450" priority="430" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="431" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="432" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="433" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="434" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="435" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="436" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="437" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="438" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="439" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="440" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:AF9 A9:H10 AG9:BI15 I10:Y10 A11:Y16 AK16:BI16">
-    <cfRule type="cellIs" dxfId="21" priority="126" operator="equal">
+  <conditionalFormatting sqref="I9:AF9 A9:H10 I10:Y10 A11:Y16 AK6 AV5:AX5 BO9:BU16 AP12:AS12 AK8:AO8 AG11:AT11 AS8:AU8 AK7:AL7">
+    <cfRule type="cellIs" dxfId="439" priority="551" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="438" priority="552" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="437" priority="553" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="436" priority="554" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="435" priority="555" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="556" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="557" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="558" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="559" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="560" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="561" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="122" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="123" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="124" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="125" operator="equal">
-      <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z10:AF16">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="441" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="442" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="443" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="444" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="445" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="446" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="422" priority="447" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="448" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="449" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="450" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="451" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM12:AM14">
+    <cfRule type="cellIs" dxfId="417" priority="419" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="416" priority="420" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="415" priority="421" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="414" priority="422" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="413" priority="423" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="412" priority="424" operator="equal">
       <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="411" priority="425" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="410" priority="426" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="409" priority="427" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="408" priority="428" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="407" priority="429" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU11:AV11">
+    <cfRule type="cellIs" dxfId="406" priority="408" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="405" priority="409" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="404" priority="410" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="403" priority="411" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="402" priority="412" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="401" priority="413" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="400" priority="414" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="399" priority="415" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="398" priority="416" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="397" priority="417" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="396" priority="418" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH16:AK16 AI15:AJ15">
+    <cfRule type="cellIs" dxfId="395" priority="397" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="394" priority="398" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="393" priority="399" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="392" priority="400" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="391" priority="401" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="390" priority="402" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="389" priority="403" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="388" priority="404" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="387" priority="405" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="386" priority="406" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="385" priority="407" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN13:AO13">
+    <cfRule type="cellIs" dxfId="351" priority="353" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="350" priority="354" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="349" priority="355" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="348" priority="356" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="347" priority="357" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="346" priority="358" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="345" priority="359" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="344" priority="360" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="343" priority="361" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="342" priority="362" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="341" priority="363" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT12:AV12">
+    <cfRule type="cellIs" dxfId="340" priority="342" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="339" priority="343" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="338" priority="344" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="337" priority="345" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="336" priority="346" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="335" priority="347" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="348" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="333" priority="349" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="332" priority="350" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="331" priority="351" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="352" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ16">
+    <cfRule type="cellIs" dxfId="329" priority="331" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="332" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="327" priority="333" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="326" priority="334" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="335" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="324" priority="336" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="323" priority="337" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="338" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="321" priority="339" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="320" priority="340" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="319" priority="341" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR15">
+    <cfRule type="cellIs" dxfId="318" priority="320" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="317" priority="321" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="322" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="315" priority="323" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="314" priority="324" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="325" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="326" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="311" priority="327" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="328" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="309" priority="329" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="308" priority="330" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS15:AT15">
+    <cfRule type="cellIs" dxfId="307" priority="309" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="306" priority="310" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="305" priority="311" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="312" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="303" priority="313" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="302" priority="314" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="315" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="300" priority="316" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="299" priority="317" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="318" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="297" priority="319" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT16">
+    <cfRule type="cellIs" dxfId="296" priority="298" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="299" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="294" priority="300" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="293" priority="301" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="302" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="291" priority="303" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="290" priority="304" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="305" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="288" priority="306" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="287" priority="307" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="308" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ15">
+    <cfRule type="cellIs" dxfId="285" priority="287" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="284" priority="288" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="289" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="290" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="281" priority="291" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="292" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="279" priority="293" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="294" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="295" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="296" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="275" priority="297" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AU6">
+    <cfRule type="cellIs" dxfId="274" priority="276" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="277" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="272" priority="278" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="279" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="280" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="269" priority="281" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="282" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="267" priority="283" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="284" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="265" priority="285" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="286" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT6">
+    <cfRule type="cellIs" dxfId="263" priority="265" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="266" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="267" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="268" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="259" priority="269" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="270" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="271" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="272" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="273" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="274" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="275" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS6">
+    <cfRule type="cellIs" dxfId="252" priority="254" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="251" priority="255" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="256" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="257" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="258" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="259" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="260" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="245" priority="261" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="262" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="263" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="264" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK5">
+    <cfRule type="cellIs" dxfId="241" priority="243" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="244" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="239" priority="245" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="246" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="237" priority="247" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="248" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="249" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="250" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="233" priority="251" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="252" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="253" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ6">
+    <cfRule type="cellIs" dxfId="230" priority="232" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="233" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="234" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="227" priority="235" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="236" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="237" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="238" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="239" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="240" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="241" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="242" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI7">
+    <cfRule type="cellIs" dxfId="219" priority="221" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="222" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="223" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="224" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="215" priority="225" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="226" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="227" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="228" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="229" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="230" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="209" priority="231" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH7">
+    <cfRule type="cellIs" dxfId="208" priority="210" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="211" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="212" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="213" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="214" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="203" priority="215" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="216" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="217" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="218" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="219" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="220" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL6">
+    <cfRule type="cellIs" dxfId="197" priority="199" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="200" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="201" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="202" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="203" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="204" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="191" priority="205" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="206" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="207" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="208" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="209" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN7">
+    <cfRule type="cellIs" dxfId="186" priority="188" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="189" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="190" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="191" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="192" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="193" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="194" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="195" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="196" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="197" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="198" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM7">
+    <cfRule type="cellIs" dxfId="175" priority="177" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="178" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="179" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="180" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="181" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="182" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="183" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="184" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="185" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="186" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="187" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO7">
+    <cfRule type="cellIs" dxfId="164" priority="166" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="167" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="168" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="169" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="170" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="171" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="172" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="173" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="174" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="175" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="176" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP6">
+    <cfRule type="cellIs" dxfId="153" priority="155" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="156" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="157" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="158" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="159" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="160" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="161" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="162" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="163" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="164" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="165" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ6">
+    <cfRule type="cellIs" dxfId="142" priority="144" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="145" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="146" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="147" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="148" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="149" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="150" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="151" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="152" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="153" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="154" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR6">
+    <cfRule type="cellIs" dxfId="131" priority="133" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="134" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="135" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="136" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="137" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="138" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="139" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="140" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="141" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="142" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="143" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN12">
+    <cfRule type="cellIs" dxfId="120" priority="111" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="112" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="113" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="114" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="116" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="117" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="118" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="119" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="120" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="121" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AO12">
+    <cfRule type="cellIs" dxfId="109" priority="100" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="101" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="102" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="103" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="104" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="105" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="106" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="107" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="108" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="109" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="110" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN13">
+    <cfRule type="cellIs" dxfId="98" priority="89" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="90" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="91" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="92" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="93" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="94" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="95" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="96" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="97" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="98" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="99" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR8">
+    <cfRule type="cellIs" dxfId="87" priority="78" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="79" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="80" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="81" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="84" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="85" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="86" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="87" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="88" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR8">
+    <cfRule type="cellIs" dxfId="76" priority="67" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="68" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="69" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="70" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="71" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="74" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="75" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="76" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="77" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ8">
+    <cfRule type="cellIs" dxfId="65" priority="56" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="57" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="58" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="59" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="60" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="63" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="64" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="65" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="66" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ8">
+    <cfRule type="cellIs" dxfId="54" priority="45" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="46" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="47" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="48" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="53" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="54" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="55" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ9">
+    <cfRule type="cellIs" dxfId="43" priority="34" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="35" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="36" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="43" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ7">
+    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="31" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP8">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP8">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/ThirdStage.xlsx
+++ b/Excel/ThirdStage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyake\ドキュメント\ゲーム制作用ファイル\ゲーム製作 No.4\PoorRailroadCompany\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEA92D2-0704-4595-9D73-0DBA1E18A67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35368F5-328F-48EF-8ACC-7F5F0DAF7C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
@@ -96,2657 +96,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="451">
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="176">
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -4779,10 +2129,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{706EDC5C-04A0-48F3-8B37-5A4E1097AF7E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BU16"/>
+  <dimension ref="A1:BV16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AN8" sqref="AN8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4790,7 +2140,7 @@
     <col min="1" max="100" width="3.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:74" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -4975,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>10</v>
       </c>
@@ -5037,19 +2387,19 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <v>13</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X2">
         <v>0</v>
       </c>
       <c r="Y2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>20</v>
@@ -5195,8 +2545,11 @@
       <c r="BU2">
         <v>20</v>
       </c>
+      <c r="BV2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>10</v>
       </c>
@@ -5255,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="V3">
         <v>10</v>
       </c>
       <c r="W3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>20</v>
@@ -5279,7 +2632,7 @@
         <v>20</v>
       </c>
       <c r="AB3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AC3">
         <v>31</v>
@@ -5351,7 +2704,7 @@
         <v>31</v>
       </c>
       <c r="AZ3">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BA3">
         <v>20</v>
@@ -5416,8 +2769,11 @@
       <c r="BU3">
         <v>20</v>
       </c>
+      <c r="BV3">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>10</v>
       </c>
@@ -5473,10 +2829,10 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U4">
         <v>10</v>
@@ -5488,16 +2844,16 @@
         <v>10</v>
       </c>
       <c r="X4">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y4">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Z4">
         <v>20</v>
       </c>
       <c r="AA4">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AB4">
         <v>31</v>
@@ -5575,7 +2931,7 @@
         <v>31</v>
       </c>
       <c r="BA4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BB4">
         <v>20</v>
@@ -5637,8 +2993,11 @@
       <c r="BU4">
         <v>20</v>
       </c>
+      <c r="BV4">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>10</v>
       </c>
@@ -5694,10 +3053,10 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U5">
         <v>10</v>
@@ -5709,13 +3068,13 @@
         <v>10</v>
       </c>
       <c r="X5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y5">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Z5">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AA5">
         <v>31</v>
@@ -5748,20 +3107,20 @@
         <v>31</v>
       </c>
       <c r="AK5">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AL5">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="AM5">
         <v>31</v>
       </c>
       <c r="AN5">
+        <v>31</v>
+      </c>
+      <c r="AO5">
         <v>25</v>
       </c>
-      <c r="AO5">
-        <v>31</v>
-      </c>
       <c r="AP5">
         <v>31</v>
       </c>
@@ -5781,7 +3140,7 @@
         <v>31</v>
       </c>
       <c r="AV5">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="AW5">
         <v>8</v>
@@ -5790,13 +3149,13 @@
         <v>8</v>
       </c>
       <c r="AY5">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="AZ5">
         <v>31</v>
       </c>
       <c r="BA5">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BB5">
         <v>20</v>
@@ -5858,8 +3217,11 @@
       <c r="BU5">
         <v>20</v>
       </c>
+      <c r="BV5">
+        <v>20</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>31</v>
       </c>
@@ -5918,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="V6">
         <v>10</v>
@@ -5930,13 +3292,13 @@
         <v>10</v>
       </c>
       <c r="X6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Y6">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Z6">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AA6">
         <v>31</v>
@@ -5966,16 +3328,16 @@
         <v>31</v>
       </c>
       <c r="AJ6">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AL6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="AN6">
         <v>31</v>
@@ -5984,7 +3346,7 @@
         <v>31</v>
       </c>
       <c r="AP6">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AQ6">
         <v>13</v>
@@ -6002,7 +3364,7 @@
         <v>13</v>
       </c>
       <c r="AV6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AW6">
         <v>8</v>
@@ -6011,13 +3373,13 @@
         <v>8</v>
       </c>
       <c r="AY6">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="AZ6">
         <v>31</v>
       </c>
       <c r="BA6">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BB6">
         <v>20</v>
@@ -6079,8 +3441,11 @@
       <c r="BU6">
         <v>20</v>
       </c>
+      <c r="BV6">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>13</v>
       </c>
@@ -6154,10 +3519,10 @@
         <v>0</v>
       </c>
       <c r="Y7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AA7">
         <v>13</v>
@@ -6187,7 +3552,7 @@
         <v>13</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AK7">
         <v>0</v>
@@ -6196,22 +3561,22 @@
         <v>0</v>
       </c>
       <c r="AM7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AQ7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS7">
         <v>0</v>
@@ -6223,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="AV7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AW7">
         <v>8</v>
@@ -6232,13 +3597,13 @@
         <v>8</v>
       </c>
       <c r="AY7">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="AZ7">
         <v>31</v>
       </c>
       <c r="BA7">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="BB7">
         <v>20</v>
@@ -6300,8 +3665,11 @@
       <c r="BU7">
         <v>20</v>
       </c>
+      <c r="BV7">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6357,7 +3725,7 @@
         <v>6</v>
       </c>
       <c r="S8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>6</v>
@@ -6378,10 +3746,10 @@
         <v>6</v>
       </c>
       <c r="Z8">
+        <v>6</v>
+      </c>
+      <c r="AA8">
         <v>5</v>
-      </c>
-      <c r="AA8">
-        <v>1</v>
       </c>
       <c r="AB8">
         <v>1</v>
@@ -6399,11 +3767,11 @@
         <v>1</v>
       </c>
       <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
         <v>2</v>
       </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
       <c r="AI8">
         <v>0</v>
       </c>
@@ -6426,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AQ8">
         <v>10</v>
@@ -6435,7 +3803,7 @@
         <v>10</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -6447,10 +3815,10 @@
         <v>0</v>
       </c>
       <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
         <v>4</v>
-      </c>
-      <c r="AX8">
-        <v>6</v>
       </c>
       <c r="AY8">
         <v>6</v>
@@ -6521,8 +3889,11 @@
       <c r="BU8">
         <v>6</v>
       </c>
+      <c r="BV8">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0</v>
       </c>
@@ -6596,10 +3967,10 @@
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA9">
         <v>0</v>
@@ -6617,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -6650,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="AQ9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS9">
         <v>0</v>
@@ -6680,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BB9">
         <v>20</v>
@@ -6742,8 +4113,11 @@
       <c r="BU9">
         <v>20</v>
       </c>
+      <c r="BV9">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0</v>
       </c>
@@ -6817,17 +4191,17 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
         <v>50</v>
       </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
       <c r="AC10">
         <v>0</v>
       </c>
@@ -6838,10 +4212,10 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -6901,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="BA10">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BB10">
         <v>20</v>
@@ -6963,8 +4337,11 @@
       <c r="BU10">
         <v>20</v>
       </c>
+      <c r="BV10">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0</v>
       </c>
@@ -7038,13 +4415,13 @@
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -7059,10 +4436,10 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -7104,13 +4481,13 @@
         <v>0</v>
       </c>
       <c r="AU11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AV11">
         <v>10</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX11">
         <v>0</v>
@@ -7122,7 +4499,7 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BB11">
         <v>20</v>
@@ -7184,8 +4561,11 @@
       <c r="BU11">
         <v>20</v>
       </c>
+      <c r="BV11">
+        <v>20</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0</v>
       </c>
@@ -7259,16 +4639,16 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AA12">
         <v>13</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -7280,10 +4660,10 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -7301,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AN12">
         <v>10</v>
@@ -7310,7 +4690,7 @@
         <v>10</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -7322,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="AT12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>10</v>
@@ -7331,7 +4711,7 @@
         <v>10</v>
       </c>
       <c r="AW12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX12">
         <v>0</v>
@@ -7343,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="BB12">
         <v>20</v>
@@ -7405,8 +4785,11 @@
       <c r="BU12">
         <v>20</v>
       </c>
+      <c r="BV12">
+        <v>20</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>13</v>
       </c>
@@ -7474,16 +4857,16 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="X13">
         <v>10</v>
       </c>
       <c r="Y13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z13">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AA13">
         <v>13</v>
@@ -7492,7 +4875,7 @@
         <v>13</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -7501,10 +4884,10 @@
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AH13">
         <v>0</v>
@@ -7522,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="AM13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AN13">
         <v>10</v>
@@ -7531,7 +4914,7 @@
         <v>10</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -7543,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="AT13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>10</v>
@@ -7552,7 +4935,7 @@
         <v>10</v>
       </c>
       <c r="AW13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX13">
         <v>0</v>
@@ -7561,10 +4944,10 @@
         <v>0</v>
       </c>
       <c r="AZ13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BA13">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="BB13">
         <v>20</v>
@@ -7626,8 +5009,11 @@
       <c r="BU13">
         <v>20</v>
       </c>
+      <c r="BV13">
+        <v>20</v>
+      </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7689,7 +5075,7 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V14">
         <v>10</v>
@@ -7701,13 +5087,13 @@
         <v>10</v>
       </c>
       <c r="Y14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z14">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AA14">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AB14">
         <v>13</v>
@@ -7716,16 +5102,16 @@
         <v>13</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -7743,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AN14">
         <v>10</v>
@@ -7752,7 +5138,7 @@
         <v>10</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -7779,13 +5165,13 @@
         <v>0</v>
       </c>
       <c r="AY14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AZ14">
         <v>10</v>
       </c>
       <c r="BA14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="BB14">
         <v>20</v>
@@ -7847,8 +5233,11 @@
       <c r="BU14">
         <v>20</v>
       </c>
+      <c r="BV14">
+        <v>20</v>
+      </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>31</v>
       </c>
@@ -7907,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U15">
         <v>10</v>
@@ -7922,16 +5311,16 @@
         <v>10</v>
       </c>
       <c r="Y15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z15">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AA15">
         <v>31</v>
       </c>
       <c r="AB15">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AC15">
         <v>13</v>
@@ -7940,25 +5329,25 @@
         <v>13</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AF15">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AH15">
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
         <v>13</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AL15">
         <v>0</v>
@@ -7976,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="AQ15">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR15">
         <v>13</v>
@@ -7988,7 +5377,7 @@
         <v>13</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AV15">
         <v>0</v>
@@ -7997,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="AX15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AY15">
         <v>10</v>
@@ -8006,7 +5395,7 @@
         <v>10</v>
       </c>
       <c r="BA15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="BB15">
         <v>20</v>
@@ -8068,8 +5457,11 @@
       <c r="BU15">
         <v>20</v>
       </c>
+      <c r="BV15">
+        <v>20</v>
+      </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>31</v>
       </c>
@@ -8128,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="T16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U16">
         <v>10</v>
@@ -8143,10 +5535,10 @@
         <v>10</v>
       </c>
       <c r="Y16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z16">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AA16">
         <v>31</v>
@@ -8167,10 +5559,10 @@
         <v>31</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AH16">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AI16">
         <v>13</v>
@@ -8182,7 +5574,7 @@
         <v>13</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -8197,25 +5589,25 @@
         <v>0</v>
       </c>
       <c r="AQ16">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR16">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="AS16">
         <v>31</v>
       </c>
       <c r="AT16">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AU16">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AV16">
         <v>0</v>
       </c>
       <c r="AW16">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX16">
         <v>10</v>
@@ -8227,7 +5619,7 @@
         <v>10</v>
       </c>
       <c r="BA16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="BB16">
         <v>20</v>
@@ -8287,782 +5679,15 @@
         <v>20</v>
       </c>
       <c r="BU16">
+        <v>20</v>
+      </c>
+      <c r="BV16">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:BI1 AG15:AH15 AM5:AM6 AL5 A5:AJ5 AG12:AL14 AV2:BU8 A2:AU4 AN5:AU5 AP16 AR16:AS16 AK15:AP15 AN6:AO6 A8:AJ8 A6:AI6 A7:AG7 AJ7 AM12:AO13 AU15:BN16 AN14:AW14 AX11:BN14 AG9:BN10 AP7:AU7 AN13:AS13 AU11:AW13 AT12:AT13">
-    <cfRule type="cellIs" dxfId="450" priority="430" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="431" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="432" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="433" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="434" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="435" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="436" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="443" priority="437" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="438" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="439" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="440" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9:AF9 A9:H10 I10:Y10 A11:Y16 AK6 AV5:AX5 BO9:BU16 AP12:AS12 AK8:AO8 AG11:AT11 AS8:AU8 AK7:AL7">
-    <cfRule type="cellIs" dxfId="439" priority="551" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="552" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="553" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="554" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="555" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="556" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="557" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="558" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="431" priority="559" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="560" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="561" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z10:AF16">
-    <cfRule type="cellIs" dxfId="428" priority="441" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="442" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="443" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="444" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="445" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="446" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="447" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="448" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="449" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="450" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="451" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM12:AM14">
-    <cfRule type="cellIs" dxfId="417" priority="419" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="420" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="421" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="422" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="423" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="424" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="425" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="426" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="427" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="428" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="429" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU11:AV11">
-    <cfRule type="cellIs" dxfId="406" priority="408" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="405" priority="409" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="410" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="411" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="412" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="413" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="414" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="415" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="416" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="417" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="418" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH16:AK16 AI15:AJ15">
-    <cfRule type="cellIs" dxfId="395" priority="397" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="398" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="399" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="400" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="401" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="402" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="403" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="404" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="405" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="406" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="407" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN13:AO13">
-    <cfRule type="cellIs" dxfId="351" priority="353" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="354" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="355" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="356" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="357" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="358" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="359" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="360" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="361" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="362" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="363" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT12:AV12">
-    <cfRule type="cellIs" dxfId="340" priority="342" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="343" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="344" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="345" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="346" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="347" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="348" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="349" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="350" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="351" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="352" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ16">
-    <cfRule type="cellIs" dxfId="329" priority="331" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="332" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="333" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="334" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="335" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="336" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="337" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="338" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="339" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="340" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="341" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR15">
-    <cfRule type="cellIs" dxfId="318" priority="320" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="321" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="322" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="323" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="324" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="325" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="326" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="327" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="328" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="329" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="330" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS15:AT15">
-    <cfRule type="cellIs" dxfId="307" priority="309" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="310" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="311" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="312" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="313" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="314" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="315" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="316" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="317" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="318" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="319" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT16">
-    <cfRule type="cellIs" dxfId="296" priority="298" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="299" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="300" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="301" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="302" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="303" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="304" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="305" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="306" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="307" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="308" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ15">
-    <cfRule type="cellIs" dxfId="285" priority="287" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="288" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="289" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="290" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="291" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="292" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="293" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="294" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="295" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="296" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="297" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU6">
-    <cfRule type="cellIs" dxfId="274" priority="276" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="277" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="278" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="279" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="280" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="281" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="282" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="283" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="284" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="265" priority="285" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="286" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT6">
-    <cfRule type="cellIs" dxfId="263" priority="265" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="266" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="267" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="268" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="269" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="270" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="271" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="272" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="273" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="274" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="275" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AS6">
-    <cfRule type="cellIs" dxfId="252" priority="254" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="255" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="256" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="257" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="258" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="259" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="260" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="261" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="262" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="263" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="264" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK5">
-    <cfRule type="cellIs" dxfId="241" priority="243" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="244" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="245" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="246" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="237" priority="247" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="248" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="249" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="250" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="251" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="252" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="253" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ6">
-    <cfRule type="cellIs" dxfId="230" priority="232" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="233" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="234" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="235" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="236" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="237" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="238" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="239" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="240" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="241" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="242" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI7">
-    <cfRule type="cellIs" dxfId="219" priority="221" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="222" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="223" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="224" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="225" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="226" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="227" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="228" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="229" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="230" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="231" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH7">
-    <cfRule type="cellIs" dxfId="208" priority="210" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="211" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="212" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="213" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="214" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="215" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="216" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="217" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="218" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="219" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="220" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL6">
-    <cfRule type="cellIs" dxfId="197" priority="199" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="200" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="201" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="202" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="203" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="204" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="205" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="206" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="207" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="208" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="209" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN7">
-    <cfRule type="cellIs" dxfId="186" priority="188" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="189" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="190" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="191" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="192" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="193" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="194" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="195" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="196" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="197" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="198" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM7">
+  <conditionalFormatting sqref="T5:AN7 T8:AQ8 A2:R8 T2:AV4 T9:AG9 I9:R10 A11:R16 S2:S9 S10:Z16">
     <cfRule type="cellIs" dxfId="175" priority="177" operator="equal">
       <formula>51</formula>
     </cfRule>
@@ -9097,217 +5722,217 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO7">
-    <cfRule type="cellIs" dxfId="164" priority="166" operator="equal">
+  <conditionalFormatting sqref="A1:BI1 AW2:BV8 AO5:AY5 AH9:BO10 AV11:AX13 AY11:BO14 AU12:AU13 AO14:AX14 AQ16">
+    <cfRule type="cellIs" dxfId="164" priority="430" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="431" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="432" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="433" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="434" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="435" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="436" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="437" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="438" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="439" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="440" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP6">
-    <cfRule type="cellIs" dxfId="153" priority="155" operator="equal">
+  <conditionalFormatting sqref="A9:H10 BP9:BV16">
+    <cfRule type="cellIs" dxfId="153" priority="551" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="552" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="553" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="554" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="555" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="556" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="557" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="558" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="559" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="560" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="561" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ6">
-    <cfRule type="cellIs" dxfId="142" priority="144" operator="equal">
+  <conditionalFormatting sqref="AA10:AG16">
+    <cfRule type="cellIs" dxfId="142" priority="441" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="442" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="443" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="444" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="445" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="446" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="447" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="448" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="449" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="450" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="451" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR6">
-    <cfRule type="cellIs" dxfId="131" priority="133" operator="equal">
+  <conditionalFormatting sqref="AH12:AN14">
+    <cfRule type="cellIs" dxfId="131" priority="419" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="420" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="421" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="422" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="423" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="424" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="425" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="426" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="427" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="428" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="429" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN12">
-    <cfRule type="cellIs" dxfId="120" priority="111" operator="equal">
+  <conditionalFormatting sqref="AH15:AQ15 AI16:AL16">
+    <cfRule type="cellIs" dxfId="120" priority="397" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="398" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="399" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="400" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="401" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="402" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="403" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="404" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="405" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="406" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="407" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO12">
-    <cfRule type="cellIs" dxfId="109" priority="100" operator="equal">
+  <conditionalFormatting sqref="AH11:AW11">
+    <cfRule type="cellIs" dxfId="109" priority="408" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="409" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="410" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="411" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="412" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="413" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="414" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="415" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="416" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="417" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="418" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN13">
+  <conditionalFormatting sqref="AN12:AP13">
     <cfRule type="cellIs" dxfId="98" priority="89" operator="equal">
       <formula>51</formula>
     </cfRule>
@@ -9342,283 +5967,283 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR8">
-    <cfRule type="cellIs" dxfId="87" priority="78" operator="equal">
+  <conditionalFormatting sqref="AO6:AQ6">
+    <cfRule type="cellIs" dxfId="87" priority="155" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="156" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="157" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="158" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="159" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="160" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="161" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="162" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="163" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="164" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="165" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR8">
-    <cfRule type="cellIs" dxfId="76" priority="67" operator="equal">
+  <conditionalFormatting sqref="AO13:AT13">
+    <cfRule type="cellIs" dxfId="76" priority="353" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="354" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="355" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="356" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="357" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="358" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="359" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="360" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="361" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="362" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="363" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ8">
-    <cfRule type="cellIs" dxfId="65" priority="56" operator="equal">
+  <conditionalFormatting sqref="AO7:AV7">
+    <cfRule type="cellIs" dxfId="65" priority="166" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="167" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="168" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="169" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="170" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="171" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="172" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="173" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="174" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="175" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="176" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ8">
-    <cfRule type="cellIs" dxfId="54" priority="45" operator="equal">
+  <conditionalFormatting sqref="AP12:AW12">
+    <cfRule type="cellIs" dxfId="54" priority="100" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="101" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="102" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="103" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="104" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="105" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="106" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="107" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="108" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="109" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ9">
-    <cfRule type="cellIs" dxfId="43" priority="34" operator="equal">
+  <conditionalFormatting sqref="AR6:AR9">
+    <cfRule type="cellIs" dxfId="43" priority="23" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="24" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="25" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="26" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="27" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="28" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AQ7">
-    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
+  <conditionalFormatting sqref="AR15:BO16">
+    <cfRule type="cellIs" dxfId="32" priority="287" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="288" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="289" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="290" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="291" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="292" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="293" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="294" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="295" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="296" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="297" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP8">
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+  <conditionalFormatting sqref="AS6:AV6">
+    <cfRule type="cellIs" dxfId="21" priority="133" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="134" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="135" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="136" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="137" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="138" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="139" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="140" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="141" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="142" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="143" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP8">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+  <conditionalFormatting sqref="AS8:AV8">
+    <cfRule type="cellIs" dxfId="10" priority="67" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="68" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="69" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="70" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="71" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="72" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="73" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="74" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="75" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="76" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="77" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel/ThirdStage.xlsx
+++ b/Excel/ThirdStage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyake\ドキュメント\ゲーム制作用ファイル\ゲーム製作 No.4\PoorRailroadCompany\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35368F5-328F-48EF-8ACC-7F5F0DAF7C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5D3ADA-E22B-472A-852A-8078419FF3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="11544" windowHeight="12240" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,17 +96,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="176">
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="165">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -185,20 +175,75 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -220,6 +265,16 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -266,76 +321,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -352,17 +342,17 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
@@ -372,46 +362,56 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -458,6 +458,41 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1" tint="0.499984740745262"/>
       </font>
       <fill>
@@ -468,11 +503,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -488,66 +523,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -564,6 +544,71 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1" tint="0.499984740745262"/>
       </font>
       <fill>
@@ -574,6 +619,41 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF7030A0"/>
       </font>
       <fill>
@@ -584,76 +664,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -670,17 +685,17 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
@@ -690,46 +705,31 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -851,8 +851,53 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -861,11 +906,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -882,17 +927,17 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
@@ -902,6 +947,16 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -932,16 +987,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1008,11 +1053,46 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1020,11 +1100,6 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -1033,26 +1108,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFFC000"/>
       </font>
       <fill>
@@ -1063,7 +1118,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF7030A0"/>
       </font>
       <fill>
         <patternFill>
@@ -1073,11 +1128,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1094,96 +1149,76 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1" tint="0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1200,17 +1235,17 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
@@ -1220,22 +1255,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
+        <color rgb="FFFFC000"/>
       </font>
       <fill>
         <patternFill>
@@ -1250,16 +1270,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1306,6 +1316,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1" tint="0.499984740745262"/>
       </font>
       <fill>
@@ -1316,86 +1346,81 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF7030A0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1412,96 +1437,116 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1" tint="0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1518,21 +1563,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1543,71 +1578,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1624,6 +1594,76 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1" tint="0.499984740745262"/>
       </font>
       <fill>
@@ -1634,7 +1674,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF7030A0"/>
+        <color rgb="FFFFC000"/>
       </font>
       <fill>
         <patternFill>
@@ -1646,152 +1686,6 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFCC9900"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFCC9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2131,8 +2025,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BV16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AX10" sqref="AX10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4048,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="AZ9">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="BA9">
         <v>0</v>
@@ -5687,564 +5581,529 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="T5:AN7 T8:AQ8 A2:R8 T2:AV4 T9:AG9 I9:R10 A11:R16 S2:S9 S10:Z16">
-    <cfRule type="cellIs" dxfId="175" priority="177" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="178" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="179" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="180" operator="equal">
+  <conditionalFormatting sqref="A1:BI1 AW2:BV8 AO5:AY5 AH9:BO10 AV11:AX13 AY11:BO14 AU12:AU13 AO14:AX14 AQ16">
+    <cfRule type="cellIs" dxfId="164" priority="433" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="181" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="440" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="436" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="435" operator="equal">
       <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="183" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="184" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="185" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="186" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="187" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:BI1 AW2:BV8 AO5:AY5 AH9:BO10 AV11:AX13 AY11:BO14 AU12:AU13 AO14:AX14 AQ16">
-    <cfRule type="cellIs" dxfId="164" priority="430" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="431" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="432" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="433" operator="equal">
-      <formula>30</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="160" priority="434" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="438" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="432" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="439" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="431" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="430" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="437" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:AV4 S2:S9 A2:R16 T5:AN7 T8:AQ8 T9:AG9 S10:AG16">
+    <cfRule type="cellIs" dxfId="153" priority="181" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="185" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="184" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="183" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="182" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="436" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="437" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="438" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="180" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="179" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="178" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="177" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="187" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="186" operator="equal">
       <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="440" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:H10 BP9:BV16">
-    <cfRule type="cellIs" dxfId="153" priority="551" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="552" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="553" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="554" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="555" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="556" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="557" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="558" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="559" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="560" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="561" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA10:AG16">
-    <cfRule type="cellIs" dxfId="142" priority="441" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="442" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="443" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="444" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="445" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="446" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="447" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="448" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="449" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="450" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="451" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH12:AN14">
-    <cfRule type="cellIs" dxfId="131" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="419" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="429" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="428" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="427" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="426" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="424" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="423" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="422" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="421" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="425" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="420" operator="equal">
       <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="421" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="422" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="423" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="424" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="425" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="426" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="427" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="428" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="429" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15:AQ15 AI16:AL16">
-    <cfRule type="cellIs" dxfId="120" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="397" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="399" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="400" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="403" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="401" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="402" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="404" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="405" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="406" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="407" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="398" operator="equal">
       <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="399" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="400" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="401" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="402" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="403" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="404" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="405" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="406" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="407" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH11:AW11">
-    <cfRule type="cellIs" dxfId="109" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="418" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="417" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="416" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="415" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="414" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="413" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="412" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="411" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="410" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="409" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="408" operator="equal">
       <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="409" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="410" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="411" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="412" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="413" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="414" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="415" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="416" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="417" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="418" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN12:AP13">
-    <cfRule type="cellIs" dxfId="98" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="93" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="96" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="95" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="94" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="99" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="98" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="97" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="92" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="91" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="90" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="89" operator="equal">
       <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="90" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="91" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="92" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="93" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="94" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="95" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="96" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="97" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="98" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="99" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO6:AQ6">
-    <cfRule type="cellIs" dxfId="87" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="160" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="161" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="162" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="163" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="164" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="165" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="156" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="157" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="158" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="159" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="155" operator="equal">
       <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="156" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="157" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="158" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="159" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="160" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="161" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="162" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="163" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="164" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="165" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO13:AT13">
-    <cfRule type="cellIs" dxfId="76" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="362" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="361" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="360" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="359" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="358" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="357" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="356" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="355" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="354" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="353" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="354" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="355" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="356" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="357" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="358" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="359" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="360" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="361" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="362" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="363" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO7:AV7">
-    <cfRule type="cellIs" dxfId="65" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="166" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="167" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="168" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="169" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="170" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="171" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="172" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="173" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="174" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="175" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="176" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP12:AW12">
-    <cfRule type="cellIs" dxfId="54" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="104" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="100" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="110" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="109" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="108" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="107" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="106" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="105" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="103" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="102" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="101" operator="equal">
       <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="102" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="103" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="104" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="105" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="106" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="107" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="108" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="109" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="110" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR6:AR9">
-    <cfRule type="cellIs" dxfId="43" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="24" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="29" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="25" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="26" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="27" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="28" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="33" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="32" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="31" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="30" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="23" operator="equal">
       <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="24" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="25" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="26" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="27" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="28" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="29" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR15:BO16">
-    <cfRule type="cellIs" dxfId="32" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="291" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="287" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="293" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="292" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="290" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="289" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="288" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="289" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="290" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="291" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="292" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="293" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="294" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="295" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="296" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="297" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS6:AV6">
-    <cfRule type="cellIs" dxfId="21" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="137" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="136" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="135" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="133" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="134" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="135" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="136" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="137" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="143" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="142" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="141" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="140" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="139" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="138" operator="equal">
       <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="139" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="140" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="141" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="142" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="143" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS8:AV8">
-    <cfRule type="cellIs" dxfId="10" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="73" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="74" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="75" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="71" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="76" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="77" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="67" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="68" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="69" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="70" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="72" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP9:BV16">
+    <cfRule type="cellIs" dxfId="10" priority="552" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="551" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="561" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="553" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="554" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="555" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="556" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="557" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="558" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="559" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="560" operator="equal">
       <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="77" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/ThirdStage.xlsx
+++ b/Excel/ThirdStage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyake\ドキュメント\ゲーム制作用ファイル\ゲーム製作 No.4\PoorRailroadCompany\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5D3ADA-E22B-472A-852A-8078419FF3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6684F26-98EF-447F-8FD3-BD957D2ED96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="0" windowWidth="11544" windowHeight="12240" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,6 +99,16 @@
   <dxfs count="165">
     <dxf>
       <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -175,7 +185,27 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFC000"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
       </font>
       <fill>
         <patternFill>
@@ -185,27 +215,7 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
@@ -215,76 +225,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -301,21 +246,86 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -362,7 +372,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFC000"/>
+        <color theme="8" tint="0.39994506668294322"/>
       </font>
       <fill>
         <patternFill>
@@ -372,11 +382,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -387,31 +422,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -458,76 +468,56 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -574,6 +564,26 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF7030A0"/>
       </font>
       <fill>
@@ -609,16 +619,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -654,11 +654,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -715,6 +715,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -725,8 +735,33 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -735,7 +770,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFC000"/>
+        <color rgb="FF7030A0"/>
       </font>
       <fill>
         <patternFill>
@@ -745,21 +780,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -776,17 +801,17 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
@@ -796,121 +821,51 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -927,11 +882,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -941,6 +906,21 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
@@ -951,6 +931,16 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -992,31 +982,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1033,6 +1003,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1" tint="0.499984740745262"/>
       </font>
       <fill>
@@ -1053,6 +1053,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -1085,14 +1105,29 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1100,41 +1135,6 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1149,76 +1149,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1235,16 +1185,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -1269,13 +1209,23 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFC000"/>
+        <color theme="8" tint="0.39994506668294322"/>
       </font>
       <fill>
         <patternFill>
@@ -1289,17 +1239,37 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1316,6 +1286,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF7030A0"/>
       </font>
       <fill>
@@ -1326,8 +1326,43 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -1336,91 +1371,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1" tint="0.499984740745262"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1457,6 +1422,51 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFC000"/>
       </font>
       <fill>
@@ -1467,11 +1477,11 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1479,6 +1489,11 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
@@ -1487,66 +1502,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFC000"/>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1563,11 +1523,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1578,6 +1538,101 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1594,46 +1649,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="0.39994506668294322"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF92D050"/>
       </font>
       <fill>
@@ -1641,51 +1686,6 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2025,8 +2025,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BV16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AX10" sqref="AX10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3619,7 +3619,7 @@
         <v>6</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T8">
         <v>6</v>
@@ -5582,213 +5582,213 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BI1 AW2:BV8 AO5:AY5 AH9:BO10 AV11:AX13 AY11:BO14 AU12:AU13 AO14:AX14 AQ16">
-    <cfRule type="cellIs" dxfId="164" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="438" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="431" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="440" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="439" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="437" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="436" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="435" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="434" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="433" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="440" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="436" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="435" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="434" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="438" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="432" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="439" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="431" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="430" operator="equal">
       <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="437" operator="equal">
-      <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2:AV4 S2:S9 A2:R16 T5:AN7 T8:AQ8 T9:AG9 S10:AG16">
-    <cfRule type="cellIs" dxfId="153" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="179" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="182" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="178" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="177" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="181" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="183" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="184" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="186" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="187" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="180" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="185" operator="equal">
       <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="184" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="183" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="182" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="180" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="179" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="178" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="177" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="187" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="186" operator="equal">
-      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH12:AN14">
-    <cfRule type="cellIs" dxfId="142" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="429" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="423" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="422" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="421" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="420" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="419" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="429" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="428" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="427" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="426" operator="equal">
       <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="424" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="423" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="422" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="421" operator="equal">
-      <formula>5</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="133" priority="425" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="420" operator="equal">
-      <formula>50</formula>
+    <cfRule type="cellIs" dxfId="132" priority="424" operator="equal">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15:AQ15 AI16:AL16">
-    <cfRule type="cellIs" dxfId="131" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="401" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="400" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="399" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="398" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="397" operator="equal">
       <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="399" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="400" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="403" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="401" operator="equal">
-      <formula>31</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="126" priority="402" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="406" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="407" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="405" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="404" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="405" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="406" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="407" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="398" operator="equal">
-      <formula>50</formula>
+    <cfRule type="cellIs" dxfId="121" priority="403" operator="equal">
+      <formula>20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH11:AW11">
-    <cfRule type="cellIs" dxfId="120" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="414" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="413" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="412" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="410" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="409" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="408" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="418" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="417" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="415" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="416" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="415" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="414" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="413" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="412" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="411" operator="equal">
       <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="410" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="409" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="408" operator="equal">
-      <formula>51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN12:AP13">
-    <cfRule type="cellIs" dxfId="109" priority="93" operator="equal">
-      <formula>31</formula>
+    <cfRule type="cellIs" dxfId="109" priority="97" operator="equal">
+      <formula>13</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="108" priority="96" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="92" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="95" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="94" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="93" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="91" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="90" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="89" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="99" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="98" operator="equal">
       <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="97" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="92" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="91" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="90" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="89" operator="equal">
-      <formula>51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO6:AQ6">
@@ -5798,64 +5798,64 @@
     <cfRule type="cellIs" dxfId="97" priority="161" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="163" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="164" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="165" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="162" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="163" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="164" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="165" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="155" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="156" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="157" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="158" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="159" operator="equal">
       <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="155" operator="equal">
-      <formula>51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO13:AT13">
-    <cfRule type="cellIs" dxfId="87" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="353" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="354" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="355" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="356" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="357" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="358" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="359" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="360" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="361" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="362" operator="equal">
       <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="361" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="360" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="359" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="358" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="357" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="356" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="355" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="354" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="353" operator="equal">
-      <formula>51</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="77" priority="363" operator="equal">
       <formula>1</formula>
@@ -5865,43 +5865,43 @@
     <cfRule type="cellIs" dxfId="76" priority="166" operator="equal">
       <formula>51</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="176" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="175" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="174" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="173" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="172" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="171" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="170" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="169" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="168" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="167" operator="equal">
       <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="168" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="169" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="170" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="171" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="172" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="173" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="174" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="175" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="176" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP12:AW12">
-    <cfRule type="cellIs" dxfId="65" priority="104" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="100" operator="equal">
       <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="105" operator="equal">
+      <formula>4</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="63" priority="110" operator="equal">
       <formula>1</formula>
@@ -5918,8 +5918,8 @@
     <cfRule type="cellIs" dxfId="59" priority="106" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="105" operator="equal">
-      <formula>4</formula>
+    <cfRule type="cellIs" dxfId="58" priority="104" operator="equal">
+      <formula>31</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="57" priority="103" operator="equal">
       <formula>30</formula>
@@ -5935,175 +5935,175 @@
     <cfRule type="cellIs" dxfId="54" priority="24" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="25" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="26" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="27" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="28" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="29" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="25" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="26" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="27" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="28" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="23" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="32" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="31" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="30" operator="equal">
       <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="23" operator="equal">
-      <formula>51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR15:BO16">
-    <cfRule type="cellIs" dxfId="43" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="288" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="289" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="290" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="291" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="292" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="293" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="294" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="295" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="296" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="297" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="287" operator="equal">
       <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="293" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="292" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="290" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="289" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="288" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="294" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="295" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="296" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="297" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS6:AV6">
-    <cfRule type="cellIs" dxfId="32" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="138" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="133" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="137" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="136" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="135" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="133" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="142" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="141" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="140" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="139" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="134" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="143" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="142" operator="equal">
-      <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="141" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="140" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="139" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="138" operator="equal">
-      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS8:AV8">
-    <cfRule type="cellIs" dxfId="21" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="71" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="77" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="70" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="69" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="68" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="67" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="75" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="74" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="73" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="74" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="75" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="71" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="76" operator="equal">
       <formula>2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="77" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="67" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="68" operator="equal">
-      <formula>50</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="69" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="70" operator="equal">
-      <formula>30</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="11" priority="72" operator="equal">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP9:BV16">
-    <cfRule type="cellIs" dxfId="10" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="551" operator="equal">
+      <formula>51</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="552" operator="equal">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="551" operator="equal">
-      <formula>51</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="561" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="553" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="554" operator="equal">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="555" operator="equal">
+      <formula>31</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="556" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="557" operator="equal">
+      <formula>20</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="558" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="559" operator="equal">
+      <formula>13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="560" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="561" operator="equal">
       <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="553" operator="equal">
-      <formula>5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="554" operator="equal">
-      <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="555" operator="equal">
-      <formula>31</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="556" operator="equal">
-      <formula>4</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="557" operator="equal">
-      <formula>20</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="558" operator="equal">
-      <formula>10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="559" operator="equal">
-      <formula>13</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="560" operator="equal">
-      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
